--- a/direct_example.xlsx
+++ b/direct_example.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="1240">
   <si>
     <t>Предложение текстовых блоков для рекламной кампании</t>
   </si>
@@ -2902,6 +2902,846 @@
   </si>
   <si>
     <t>-!как -joomla -lands -online -seo -tilda -torrent -wix -wordpress -бесплатно -бесплатный -битрикс -бриф -верстка -видео -видеокурс -вордпресс -готовый -дебил -дизайн -договор -задание -заработать -заработок -книга -конструктор -копировать -курс -макет -нуля -обучение -онлайн -отзывы -плагин -платформа -пошаговое -правила -придкрок -программа -прототип -самому -самостоятельно -сео -скопировать -снуля -советы -текст -тз -тильда -торрент -урок -шаблон -этапы -текст -сео -seo -верстка -дизайн -прототип -макет -магазин -Muse -Html -входит</t>
+  </si>
+  <si>
+    <t>Стоимость Создания Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Стоимость Разработки Лендинга</t>
+  </si>
+  <si>
+    <t>Стоимость Лендинга Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Средняя Цена Лендинга</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Дешево</t>
+  </si>
+  <si>
+    <t>Создание Лендинга И Настройка Директа</t>
+  </si>
+  <si>
+    <t>Услуги По Созданию Лендинга</t>
+  </si>
+  <si>
+    <t>Заказать Создание Продвижение Лендинга Под Ключ</t>
+  </si>
+  <si>
+    <t>Создание И Продвижение Лендинга Под Ключ</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Под Ключ</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Компании</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Ремонт Квартир</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Студия</t>
+  </si>
+  <si>
+    <t>Создание И Продвижение Лендинга</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Недорого</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Уфа</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Стоимость Создания</t>
+  </si>
+  <si>
+    <t>Лендинг Цена</t>
+  </si>
+  <si>
+    <t>Сколько Стоит Создание Лендинга</t>
+  </si>
+  <si>
+    <t>Создать Лендинг Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Страница Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Пейдж Создание И Продвижение</t>
+  </si>
+  <si>
+    <t>Создание Лендинг Пейдж Цена</t>
+  </si>
+  <si>
+    <t>Создание Бизнес Лендингов</t>
+  </si>
+  <si>
+    <t>Создание И Продвижение Landing Page</t>
+  </si>
+  <si>
+    <t>Создание Landing Page Цена</t>
+  </si>
+  <si>
+    <t>Landing Создание Сайтов</t>
+  </si>
+  <si>
+    <t>Создание Лендингов На Заказ</t>
+  </si>
+  <si>
+    <t>Сделать Лендинг Цена</t>
+  </si>
+  <si>
+    <t>Сайт Лендинг Цена</t>
+  </si>
+  <si>
+    <t>Разработка Продающего Лендинга Без Предоплаты</t>
+  </si>
+  <si>
+    <t>Цены За Разработку Лендингов</t>
+  </si>
+  <si>
+    <t>Разработка Лендинга Недорого</t>
+  </si>
+  <si>
+    <t>Разработка Лендингов и Продвижение</t>
+  </si>
+  <si>
+    <t>Разработка Лендинга Под Ключ</t>
+  </si>
+  <si>
+    <t>Разработка Лендинга</t>
+  </si>
+  <si>
+    <t>Сколько Стоит Разработка Лендинга</t>
+  </si>
+  <si>
+    <t>Разработка И Продвижение Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Разработка Лендинг Пейдж Под Ключ</t>
+  </si>
+  <si>
+    <t>Разработка Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Разработка Лендинг Пейдж Недорого</t>
+  </si>
+  <si>
+    <t>Разработка Landing Page Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Пейдж Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Пейдж Цена</t>
+  </si>
+  <si>
+    <t>Лендинг Купить Недорого</t>
+  </si>
+  <si>
+    <t>Лендинг Пейдж Купить Недорого</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Юрист</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Часов</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Окна</t>
+  </si>
+  <si>
+    <t>Лендинг Купить Цена</t>
+  </si>
+  <si>
+    <t>Landing Page Купить</t>
+  </si>
+  <si>
+    <t>Современный Лендинг Заказать</t>
+  </si>
+  <si>
+    <t>Продающий Лендинг Заказать</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Дорого</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж Двери</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж Под Ключ Недорого</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж Барнаул</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж В Ростове</t>
+  </si>
+  <si>
+    <t>Лендинг Пейдж Заказать Цена</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Для Мобильных Устройств</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Недорого</t>
+  </si>
+  <si>
+    <t>Заказать Landing Page Настройка Контекстной Рекламы</t>
+  </si>
+  <si>
+    <t>Landing Page Заказать Цена</t>
+  </si>
+  <si>
+    <t>landing page заказать сайт</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг С Гарантией</t>
+  </si>
+  <si>
+    <t>Заказать Сайт Лендинг Недорого</t>
+  </si>
+  <si>
+    <t>где заказать лендинг пейдж</t>
+  </si>
+  <si>
+    <t>где заказать лендинг</t>
+  </si>
+  <si>
+    <t>адаптивный лендинг пейдж заказать</t>
+  </si>
+  <si>
+    <t>где заказать landing page</t>
+  </si>
+  <si>
+    <t>landing page заказать дорого</t>
+  </si>
+  <si>
+    <t>landing page заказать без предоплаты</t>
+  </si>
+  <si>
+    <t>Landing Page Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Landing Page Цена</t>
+  </si>
+  <si>
+    <t>Landing Page Цена За Разработку Страницу</t>
+  </si>
+  <si>
+    <t>Landing Цена</t>
+  </si>
+  <si>
+    <t>Создание Лендинг Пейдж Под Ключ</t>
+  </si>
+  <si>
+    <t>Создание Лендинг Страницы</t>
+  </si>
+  <si>
+    <t>Создание Лендинга</t>
+  </si>
+  <si>
+    <t>Создание Лендинга Landing Page</t>
+  </si>
+  <si>
+    <t>Создание Продающего Лендинга</t>
+  </si>
+  <si>
+    <t>Создание Сайта Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Создание Сайта Лендинга</t>
+  </si>
+  <si>
+    <t>Создание Сайтов Landing Page</t>
+  </si>
+  <si>
+    <t>Создание Landing</t>
+  </si>
+  <si>
+    <t>Создание Landing Page</t>
+  </si>
+  <si>
+    <t>Создание Landing Page Под Ключ</t>
+  </si>
+  <si>
+    <t>Разработка и создание Лендинга</t>
+  </si>
+  <si>
+    <t>Разработка Конверсионных Лендингов</t>
+  </si>
+  <si>
+    <t>Разработка Лендинг Страниц</t>
+  </si>
+  <si>
+    <t>Разработка Сайтов Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Разработка Сайтов Лендингов</t>
+  </si>
+  <si>
+    <t>Разработка Landing</t>
+  </si>
+  <si>
+    <t>Разработка Landing Page</t>
+  </si>
+  <si>
+    <t>Разработка Landing Page Под Ключ</t>
+  </si>
+  <si>
+    <t>Разработка Сайтов Landing Page</t>
+  </si>
+  <si>
+    <t>Купить Лендинг</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Для Цветов</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Кухни На Заказ</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Пейдж Под Ключ</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Под Ключ</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Рф</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Сайт</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Сайт Под Ключ</t>
+  </si>
+  <si>
+    <t>Купить Лендинг Страницу</t>
+  </si>
+  <si>
+    <t>Купить Лендинги Дешево</t>
+  </si>
+  <si>
+    <t>Купить Продающий Лендинг</t>
+  </si>
+  <si>
+    <t>Купить Продающий Лендинг Под Ключ</t>
+  </si>
+  <si>
+    <t>Купить Landing</t>
+  </si>
+  <si>
+    <t>Купить Landing Page Под Ключ</t>
+  </si>
+  <si>
+    <t>Заказать Landing</t>
+  </si>
+  <si>
+    <t>Заказать Landing Page</t>
+  </si>
+  <si>
+    <t>Заказать Продающий Landing Page</t>
+  </si>
+  <si>
+    <t>Заказать Разработку Landing Page</t>
+  </si>
+  <si>
+    <t>Заказать Создание Landing Page</t>
+  </si>
+  <si>
+    <t>Заказать Дорогой Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Landing Page Ru</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Landing Ru Com</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Дешево</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж Недорого</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Пейдж Под Ключ</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Под Ключ</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Под Ключ Дорого</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Под Ключ Недорого</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Под Ключ Цена</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Страницу</t>
+  </si>
+  <si>
+    <t>Заказать Лендинг Цена</t>
+  </si>
+  <si>
+    <t>Заказать Разработку Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Заказать Разработку Лендинга</t>
+  </si>
+  <si>
+    <t>Заказать Сайт Лендинг</t>
+  </si>
+  <si>
+    <t>Заказать Сайт Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Заказать Создание Лендинг Пейдж</t>
+  </si>
+  <si>
+    <t>Заказать Создание Лендинга</t>
+  </si>
+  <si>
+    <t>Заказать Создание Лендинга Под Ключ</t>
+  </si>
+  <si>
+    <t>Заказать Landing Page Недорого</t>
+  </si>
+  <si>
+    <t>Заказать Landing Page Под Ключ</t>
+  </si>
+  <si>
+    <t>Заказать Landing Page Продвижение</t>
+  </si>
+  <si>
+    <t>Заказать Landing Ru</t>
+  </si>
+  <si>
+    <t>Заказать Landing Недорого</t>
+  </si>
+  <si>
+    <t>Стоимость создания лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Создаем продающие Лендинги под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Стоимость разработки лендинга</t>
+  </si>
+  <si>
+    <t>Стоимость лендинга под ключ</t>
+  </si>
+  <si>
+    <t>Средняя цена лендинга внашей студии</t>
+  </si>
+  <si>
+    <t>Создание лендинга. дешево!</t>
+  </si>
+  <si>
+    <t>Создание лендинга.</t>
+  </si>
+  <si>
+    <t>Создание лендинга под ключ.</t>
+  </si>
+  <si>
+    <t>Создание лендинга под ключ</t>
+  </si>
+  <si>
+    <t>Создание лендинга для компании</t>
+  </si>
+  <si>
+    <t>Создадим Лендинг для вашей компании под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Создание лендинга в web-студии</t>
+  </si>
+  <si>
+    <t>Наша web-студия создает Лендинги. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Создание лендинга</t>
+  </si>
+  <si>
+    <t>Создаем Лендинги в Уфе. Под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Цена на создание лендинга</t>
+  </si>
+  <si>
+    <t>Создание лендинг пейдж.</t>
+  </si>
+  <si>
+    <t>Цена на создание лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Создание бизнес лендингов</t>
+  </si>
+  <si>
+    <t>Создание landing page.</t>
+  </si>
+  <si>
+    <t>Цена на создание landing page</t>
+  </si>
+  <si>
+    <t>Создание landing сайтов</t>
+  </si>
+  <si>
+    <t>Создаем лендинги на заказ</t>
+  </si>
+  <si>
+    <t>Сделаем лендинг</t>
+  </si>
+  <si>
+    <t>Цена лендинг-сайта</t>
+  </si>
+  <si>
+    <t>Разработка продающего лендинга</t>
+  </si>
+  <si>
+    <t>Разрабатываем адаптивные продающие Лендинги. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Разработка лендингов</t>
+  </si>
+  <si>
+    <t>Разработка лендинга. недорого!</t>
+  </si>
+  <si>
+    <t>Разработка лендинга.</t>
+  </si>
+  <si>
+    <t>Разработка лендинга под ключ</t>
+  </si>
+  <si>
+    <t>Разрабатываем продающие Лендинги под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Разработка лендинга</t>
+  </si>
+  <si>
+    <t>Разработка лендинг пейдж.</t>
+  </si>
+  <si>
+    <t>Разработка лендинг пейдж под ключ</t>
+  </si>
+  <si>
+    <t>Разработка лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Разработка landing page</t>
+  </si>
+  <si>
+    <t>Лендинг под ключ</t>
+  </si>
+  <si>
+    <t>Лендинг пейдж под ключ</t>
+  </si>
+  <si>
+    <t>Лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Купить лендинг. недорого!</t>
+  </si>
+  <si>
+    <t>Купить лендинг для услуг юриста</t>
+  </si>
+  <si>
+    <t>Купить лендинг для продажи часов</t>
+  </si>
+  <si>
+    <t>Купить лендинг для продажи окон</t>
+  </si>
+  <si>
+    <t>Купить лендинг</t>
+  </si>
+  <si>
+    <t>Купить landing page</t>
+  </si>
+  <si>
+    <t>Заказать современный лендинг</t>
+  </si>
+  <si>
+    <t>Заказать продающий лендинг</t>
+  </si>
+  <si>
+    <t>Заказать лендинг.</t>
+  </si>
+  <si>
+    <t>Заказать лендинг по продаже дверей</t>
+  </si>
+  <si>
+    <t>Заказать лендинг пейдж под ключ</t>
+  </si>
+  <si>
+    <t>Заказать лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Заказать лендинг для смартфонов</t>
+  </si>
+  <si>
+    <t>Заказать лендинг</t>
+  </si>
+  <si>
+    <t>Заказать landing page.</t>
+  </si>
+  <si>
+    <t>Разрабатываем продающие Лендинги под ключ. Без предоплаты! Создадим рекламную компанию.</t>
+  </si>
+  <si>
+    <t>Заказать landing page</t>
+  </si>
+  <si>
+    <t>Разрабатываем продающие landing page под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Закажи сайт landing page</t>
+  </si>
+  <si>
+    <t>Закажи лендинг. с гарантией!</t>
+  </si>
+  <si>
+    <t>Закажи лендинг. недорого!</t>
+  </si>
+  <si>
+    <t>Закажи лендинг пейдж в нашей студии!</t>
+  </si>
+  <si>
+    <t>Закажи лендинг в нашей студии!</t>
+  </si>
+  <si>
+    <t>Закажи адаптивный лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Закажи landing page в нашей студии!</t>
+  </si>
+  <si>
+    <t>Landing page. дорого и качественно!</t>
+  </si>
+  <si>
+    <t>Landing page. без предоплаты!</t>
+  </si>
+  <si>
+    <t>Landing page под ключ</t>
+  </si>
+  <si>
+    <t>Landing page</t>
+  </si>
+  <si>
+    <t>Создание лендинг пейдж под ключ</t>
+  </si>
+  <si>
+    <t>Создание лендинг страницы</t>
+  </si>
+  <si>
+    <t>Создание лендинга landing page</t>
+  </si>
+  <si>
+    <t>Создание продающего лендинга</t>
+  </si>
+  <si>
+    <t>Создание сайта лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Создание сайта лендинга</t>
+  </si>
+  <si>
+    <t>Создание сайтов landing page</t>
+  </si>
+  <si>
+    <t>Создание landing</t>
+  </si>
+  <si>
+    <t>Создаем продающие landing page под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Создание landing page</t>
+  </si>
+  <si>
+    <t>Создание landing page под ключ</t>
+  </si>
+  <si>
+    <t>Разработка и создание лендинга</t>
+  </si>
+  <si>
+    <t>Разработка конверсионных лендингов</t>
+  </si>
+  <si>
+    <t>Разработка лендинг страниц</t>
+  </si>
+  <si>
+    <t>Разработка сайтов лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Разработка сайтов лендингов</t>
+  </si>
+  <si>
+    <t>Разработка landing</t>
+  </si>
+  <si>
+    <t>Разработка landing page под ключ</t>
+  </si>
+  <si>
+    <t>Разработка сайтов landing page</t>
+  </si>
+  <si>
+    <t>Купить лендинг для цветов</t>
+  </si>
+  <si>
+    <t>Купить лендинг кухни на заказ</t>
+  </si>
+  <si>
+    <t>Купить лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Купить лендинг пейдж под ключ</t>
+  </si>
+  <si>
+    <t>Купить лендинг под ключ</t>
+  </si>
+  <si>
+    <t>Купить лендинг рф</t>
+  </si>
+  <si>
+    <t>Купить лендинг сайт</t>
+  </si>
+  <si>
+    <t>Купить лендинг сайт под ключ</t>
+  </si>
+  <si>
+    <t>Купить лендинг страницу</t>
+  </si>
+  <si>
+    <t>Купить лендинги дешево</t>
+  </si>
+  <si>
+    <t>Купить продающий лендинг</t>
+  </si>
+  <si>
+    <t>Купить продающий лендинг под ключ</t>
+  </si>
+  <si>
+    <t>Купить landing</t>
+  </si>
+  <si>
+    <t>Купить landing page под ключ</t>
+  </si>
+  <si>
+    <t>Заказать landing</t>
+  </si>
+  <si>
+    <t>Заказать продающий landing page</t>
+  </si>
+  <si>
+    <t>Заказать разработку landing page</t>
+  </si>
+  <si>
+    <t>Заказать создание landing page</t>
+  </si>
+  <si>
+    <t>Заказать дорогой лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Заказать лендинг landing page ru</t>
+  </si>
+  <si>
+    <t>Заказать лендинг landing ru com</t>
+  </si>
+  <si>
+    <t>Заказать лендинг дешево</t>
+  </si>
+  <si>
+    <t>Разрабатываем недорогие Лендинги под ключ. Без предоплаты! Прототип в подарок.</t>
+  </si>
+  <si>
+    <t>Заказать лендинг пейдж недорого</t>
+  </si>
+  <si>
+    <t>Заказать лендинг под ключ</t>
+  </si>
+  <si>
+    <t>Заказать лендинг под ключ дорого</t>
+  </si>
+  <si>
+    <t>Заказать лендинг под ключ недорого</t>
+  </si>
+  <si>
+    <t>Заказать лендинг под ключ цена</t>
+  </si>
+  <si>
+    <t>Заказать лендинг страницу</t>
+  </si>
+  <si>
+    <t>Заказать лендинг цена</t>
+  </si>
+  <si>
+    <t>Заказать разработку лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Заказать разработку лендинга</t>
+  </si>
+  <si>
+    <t>Заказать сайт лендинг</t>
+  </si>
+  <si>
+    <t>Заказать сайт лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Заказать создание лендинг пейдж</t>
+  </si>
+  <si>
+    <t>Заказать создание лендинга</t>
+  </si>
+  <si>
+    <t>Заказать создание лендинга под ключ</t>
+  </si>
+  <si>
+    <t>Заказать landing page недорого</t>
+  </si>
+  <si>
+    <t>Заказать landing page под ключ</t>
+  </si>
+  <si>
+    <t>Заказать landing page продвижение</t>
+  </si>
+  <si>
+    <t>Заказать landing ru</t>
+  </si>
+  <si>
+    <t>Заказать landing недорого</t>
+  </si>
+  <si>
+    <t>От 9 990 руб.</t>
+  </si>
+  <si>
+    <t>От 19 990 руб.</t>
+  </si>
+  <si>
+    <t>Настройка рекламы!</t>
+  </si>
+  <si>
+    <t>Без предоплаты!</t>
+  </si>
+  <si>
+    <t>От 29 990 руб.</t>
   </si>
 </sst>
 </file>
@@ -2930,12 +3770,30 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -3046,7 +3904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3097,6 +3955,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -3403,16 +4277,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:AT31"/>
+  <dimension ref="A6:AT159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="15.7109375" customWidth="1"/>
+    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="20" max="21" width="15.7109375" customWidth="1"/>
     <col min="31" max="31" width="20.7109375" customWidth="1"/>
   </cols>
@@ -3640,274 +4519,274 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:46" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="18">
         <v>1</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="18">
         <f t="shared" ref="O12:Q14" si="0">IF(L12="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L12,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
         <v>33</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="R12" s="4" t="s">
+      <c r="R12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="20">
         <v>25</v>
       </c>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3" t="s">
+      <c r="V12" s="18"/>
+      <c r="W12" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="4" t="s">
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AD12" s="4" t="s">
+      <c r="AD12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="4" t="s">
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="18"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="18"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="18"/>
+      <c r="AT12" s="18"/>
+    </row>
+    <row r="13" spans="1:46" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
         <f>E12+1</f>
         <v>2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="18">
         <f>F12+1</f>
         <v>2</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="R13" s="19"/>
+      <c r="S13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="T13" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="20">
         <v>25</v>
       </c>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3" t="s">
+      <c r="V13" s="18"/>
+      <c r="W13" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="4" t="s">
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AD13" s="4" t="s">
+      <c r="AD13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="4" t="s">
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="18"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="18"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="18"/>
+      <c r="AT13" s="18"/>
+    </row>
+    <row r="14" spans="1:46" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
         <f t="shared" ref="E14:E20" si="1">E13+1</f>
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="18">
         <f t="shared" ref="F14:F20" si="2">F13+1</f>
         <v>3</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M14" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="N14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="18">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
+      <c r="R14" s="19"/>
+      <c r="S14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="20">
         <v>25</v>
       </c>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="18"/>
+      <c r="W14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18"/>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="18"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="18"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="18"/>
+      <c r="AT14" s="18"/>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -3927,6 +4806,30 @@
       <c r="G15" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="I15" t="s">
+        <v>960</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" ref="O15:O78" si="3">IF(L15="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L15,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>32</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" ref="P15:P78" si="4">IF(M15="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(M15,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>12</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" ref="Q15:Q78" si="5">IF(N15="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(N15,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>69</v>
+      </c>
       <c r="T15" s="3" t="s">
         <v>433</v>
       </c>
@@ -3952,8 +4855,29 @@
       <c r="G16" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>961</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1107</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q16" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
@@ -3971,8 +4895,29 @@
       <c r="G17" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>962</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q17" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -3990,8 +4935,29 @@
       <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>963</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Q18" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -4009,8 +4975,29 @@
       <c r="G19" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>964</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q19" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
@@ -4025,64 +5012,3371 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>965</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P20" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q20" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>966</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1111</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q21" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>967</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q22" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>968</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q23" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>969</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q24" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>970</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q25" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>971</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q26" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>972</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>973</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1117</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>974</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>975</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q30" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="I31" t="s">
+        <v>976</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P31" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q31" s="25">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>977</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q32" s="25">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>978</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q33" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I34" s="22" t="s">
+        <v>979</v>
+      </c>
+      <c r="L34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M34" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q34" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>980</v>
+      </c>
+      <c r="L35" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M35" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q35" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>981</v>
+      </c>
+      <c r="L36" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q36" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>982</v>
+      </c>
+      <c r="L37" t="s">
+        <v>1120</v>
+      </c>
+      <c r="M37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q37" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>983</v>
+      </c>
+      <c r="L38" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q38" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>984</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1122</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P39" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q39" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>985</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1123</v>
+      </c>
+      <c r="M40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q40" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>986</v>
+      </c>
+      <c r="L41" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q41" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>987</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M42" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="P42" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q42" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>988</v>
+      </c>
+      <c r="L43" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M43" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P43" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q43" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>989</v>
+      </c>
+      <c r="L44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M44" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O44" s="25">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="P44" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q44" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>990</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1128</v>
+      </c>
+      <c r="M45" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q45" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>991</v>
+      </c>
+      <c r="L46" t="s">
+        <v>1129</v>
+      </c>
+      <c r="M46" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q46" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>992</v>
+      </c>
+      <c r="L47" t="s">
+        <v>1130</v>
+      </c>
+      <c r="M47" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N47" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="Q47" s="25">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>993</v>
+      </c>
+      <c r="L48" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M48" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q48" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>994</v>
+      </c>
+      <c r="L49" t="s">
+        <v>1133</v>
+      </c>
+      <c r="M49" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O49" s="25">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q49" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>995</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1134</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O50" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q50" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>996</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1135</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q51" s="25">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I52" s="22" t="s">
+        <v>997</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O52" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q52" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>998</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q53" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>999</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P54" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q54" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1139</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O55" s="25">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="P55" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q55" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O56" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P56" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q56" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>1002</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O57" s="25">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="P57" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q57" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>1003</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O58" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P58" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q58" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>1004</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1142</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O59" s="25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P59" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q59" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1143</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O60" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P60" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q60" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1144</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O61" s="25">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P61" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q61" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O62" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P62" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q62" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1145</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O63" s="25">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="P63" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q63" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>1009</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1146</v>
+      </c>
+      <c r="M64" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O64" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P64" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q64" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O65" s="25">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="P65" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q65" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1148</v>
+      </c>
+      <c r="M66" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O66" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P66" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q66" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M67" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O67" s="25">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P67" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q67" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>1013</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M68" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O68" s="25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P68" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q68" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>1014</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1151</v>
+      </c>
+      <c r="M69" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O69" s="25">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="P69" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q69" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>1015</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1152</v>
+      </c>
+      <c r="M70" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O70" s="25">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="P70" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q70" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M71" t="s">
+        <v>1237</v>
+      </c>
+      <c r="O71" s="25">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P71" s="25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="Q71" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M72" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O72" s="25">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="P72" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q72" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L73" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M73" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O73" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P73" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q73" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I74" s="22" t="s">
+        <v>1019</v>
+      </c>
+      <c r="L74" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M74" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O74" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P74" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q74" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L75" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M75" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O75" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P75" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q75" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L76" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M76" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O76" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P76" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q76" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>1022</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M77" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O77" s="25">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="P77" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q77" s="25" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M78" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N78" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O78" s="25">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="P78" s="25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="Q78" s="25">
+        <f t="shared" si="5"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M79" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N79" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O79" s="25">
+        <f t="shared" ref="O79:O142" si="6">IF(L79="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L79,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>16</v>
+      </c>
+      <c r="P79" s="25">
+        <f t="shared" ref="P79:P142" si="7">IF(M79="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(M79,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>12</v>
+      </c>
+      <c r="Q79" s="25">
+        <f t="shared" ref="Q79:Q142" si="8">IF(N79="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(N79,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>1025</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M80" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N80" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O80" s="25">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P80" s="25">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Q80" s="25">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M81" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N81" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O81" s="25">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P81" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q81" s="25">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I82" s="23" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N82" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O82" s="25">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P82" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q82" s="25">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>1028</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1164</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1238</v>
+      </c>
+      <c r="N83" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O83" s="25">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="P83" s="25">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="Q83" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M84" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N84" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O84" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P84" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q84" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I85" s="23" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L85" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M85" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O85" s="25">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="P85" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q85" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I86" s="23" t="s">
+        <v>1031</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1167</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O86" s="25">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P86" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q86" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I87" s="23" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N87" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O87" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P87" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q87" s="25">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I88" s="23" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1169</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N88" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O88" s="25">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="P88" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q88" s="25">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I89" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L89" t="s">
+        <v>1170</v>
+      </c>
+      <c r="M89" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O89" s="25">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="P89" s="25">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Q89" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I90" s="23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="L90" t="s">
+        <v>1171</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O90" s="25">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P90" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q90" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1172</v>
+      </c>
+      <c r="M91" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O91" s="25">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P91" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q91" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>1037</v>
+      </c>
+      <c r="L92" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O92" s="25">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P92" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q92" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L93" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M93" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O93" s="25">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P93" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q93" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>1039</v>
+      </c>
+      <c r="L94" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O94" s="25">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P94" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q94" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L95" t="s">
+        <v>1174</v>
+      </c>
+      <c r="M95" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N95" t="s">
+        <v>1106</v>
+      </c>
+      <c r="O95" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P95" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q95" s="25">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1175</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O96" s="25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P96" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q96" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I97" s="22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M97" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O97" s="25">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P97" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q97" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L98" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O98" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P98" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q98" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>1044</v>
+      </c>
+      <c r="L99" t="s">
+        <v>1177</v>
+      </c>
+      <c r="M99" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O99" s="25">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P99" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q99" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L100" t="s">
+        <v>1178</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O100" s="25">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P100" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q100" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M101" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O101" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P101" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q101" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O102" s="25">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P102" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q102" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I103" s="22" t="s">
+        <v>1048</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M103" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O103" s="25">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P103" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q103" s="25">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>1049</v>
+      </c>
+      <c r="L104" t="s">
+        <v>1183</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O104" s="25">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P104" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q104" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L105" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M105" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O105" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P105" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q105" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="L106" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N106" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O106" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P106" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q106" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>1052</v>
+      </c>
+      <c r="L107" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M107" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O107" s="25">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="P107" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q107" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L108" t="s">
+        <v>1187</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O108" s="25">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="P108" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q108" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L109" t="s">
+        <v>1188</v>
+      </c>
+      <c r="M109" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O109" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P109" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q109" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1189</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O110" s="25">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="P110" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q110" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I111" s="24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L111" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M111" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N111" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O111" s="25">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="P111" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q111" s="25">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>1057</v>
+      </c>
+      <c r="L112" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O112" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P112" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q112" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L113" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O113" s="25">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P113" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q113" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L114" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O114" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P114" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q114" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I115" s="22" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L115" t="s">
+        <v>1149</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N115" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O115" s="25">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P115" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q115" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L116" t="s">
+        <v>1193</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O116" s="25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P116" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q116" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>1062</v>
+      </c>
+      <c r="L117" t="s">
+        <v>1194</v>
+      </c>
+      <c r="M117" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O117" s="25">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P117" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q117" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L118" t="s">
+        <v>1195</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O118" s="25">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="P118" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q118" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L119" t="s">
+        <v>1196</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O119" s="25">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="P119" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q119" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L120" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O120" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P120" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q120" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>1066</v>
+      </c>
+      <c r="L121" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O121" s="25">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="P121" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q121" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>1067</v>
+      </c>
+      <c r="L122" t="s">
+        <v>1199</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O122" s="25">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="P122" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q122" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>1068</v>
+      </c>
+      <c r="L123" t="s">
+        <v>1200</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O123" s="25">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P123" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q123" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L124" t="s">
+        <v>1201</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O124" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P124" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q124" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>1070</v>
+      </c>
+      <c r="L125" t="s">
+        <v>1202</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O125" s="25">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="P125" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q125" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L126" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O126" s="25">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="P126" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q126" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L127" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O127" s="25">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="P127" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q127" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L128" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O128" s="25">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="P128" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q128" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>1074</v>
+      </c>
+      <c r="L129" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O129" s="25">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="P129" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q129" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I130" s="22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L130" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O130" s="25">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P130" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q130" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>1076</v>
+      </c>
+      <c r="L131" t="s">
+        <v>1161</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O131" s="25">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="P131" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q131" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L132" t="s">
+        <v>1208</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O132" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P132" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q132" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L133" t="s">
+        <v>1209</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O133" s="25">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P133" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q133" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L134" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O134" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P134" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q134" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L135" t="s">
+        <v>1211</v>
+      </c>
+      <c r="M135" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O135" s="25">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="P135" s="25">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="Q135" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I136" s="22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L136" t="s">
+        <v>1158</v>
+      </c>
+      <c r="M136" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O136" s="25">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P136" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q136" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L137" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M137" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O137" s="25">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="P137" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q137" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1213</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O138" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P138" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q138" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>1084</v>
+      </c>
+      <c r="L139" t="s">
+        <v>1214</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N139" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O139" s="25">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="P139" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q139" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L140" t="s">
+        <v>1216</v>
+      </c>
+      <c r="M140" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O140" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P140" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q140" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>1086</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N141" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O141" s="25">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="P141" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q141" s="25">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L142" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M142" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O142" s="25">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="P142" s="25">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q142" s="25" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L143" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M143" t="s">
+        <v>1239</v>
+      </c>
+      <c r="O143" s="25">
+        <f t="shared" ref="O143:O159" si="9">IF(L143="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(L143,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>32</v>
+      </c>
+      <c r="P143" s="25">
+        <f t="shared" ref="P143:P159" si="10">IF(M143="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(M143,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v>13</v>
+      </c>
+      <c r="Q143" s="25" t="str">
+        <f t="shared" ref="Q143:Q159" si="11">IF(N143="","",LEN(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(N143,"!",""),",",""),".",""),";",""),":",""),"""","")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L144" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M144" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N144" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O144" s="25">
+        <f t="shared" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="P144" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q144" s="25">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="145" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L145" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M145" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O145" s="25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="P145" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q145" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L146" t="s">
+        <v>1221</v>
+      </c>
+      <c r="M146" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O146" s="25">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="P146" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q146" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L147" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M147" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O147" s="25">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="P147" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q147" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L148" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M148" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O148" s="25">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="P148" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q148" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L149" t="s">
+        <v>1224</v>
+      </c>
+      <c r="M149" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O149" s="25">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="P149" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q149" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L150" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M150" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O150" s="25">
+        <f t="shared" si="9"/>
+        <v>21</v>
+      </c>
+      <c r="P150" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q150" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M151" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O151" s="25">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="P151" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q151" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L152" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O152" s="25">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="P152" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q152" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L153" t="s">
+        <v>1228</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O153" s="25">
+        <f t="shared" si="9"/>
+        <v>26</v>
+      </c>
+      <c r="P153" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q153" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>1099</v>
+      </c>
+      <c r="L154" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M154" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O154" s="25">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="P154" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q154" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L155" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O155" s="25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="P155" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q155" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L156" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M156" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O156" s="25">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="P156" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q156" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L157" t="s">
+        <v>1232</v>
+      </c>
+      <c r="M157" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1160</v>
+      </c>
+      <c r="O157" s="25">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="P157" s="25">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="Q157" s="25">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="158" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1233</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N158" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O158" s="25">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="P158" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q158" s="25">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="159" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L159" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M159" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N159" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O159" s="25">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="P159" s="25">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="Q159" s="25">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="X10:X11"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="AB10:AB11"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="AD10:AD11"/>
+    <mergeCell ref="AE10:AE11"/>
+    <mergeCell ref="AF10:AF11"/>
     <mergeCell ref="AL10:AO10"/>
     <mergeCell ref="AP10:AT10"/>
     <mergeCell ref="AG10:AG11"/>
@@ -4090,36 +8384,6 @@
     <mergeCell ref="AI10:AI11"/>
     <mergeCell ref="AJ10:AJ11"/>
     <mergeCell ref="AK10:AK11"/>
-    <mergeCell ref="AB10:AB11"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="AD10:AD11"/>
-    <mergeCell ref="AE10:AE11"/>
-    <mergeCell ref="AF10:AF11"/>
-    <mergeCell ref="W10:W11"/>
-    <mergeCell ref="X10:X11"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA10:AA11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12533,6 +16797,1540 @@
     </row>
   </sheetData>
   <mergeCells count="1559">
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:G100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="E108:G108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:G110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:G113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="E117:G117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="E118:G118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="B123:E123"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="E125:G125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:G128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="E130:G130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="E131:G131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:G132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="E133:G133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="E134:G134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="E135:G135"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:G137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="E138:G138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:G139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="E140:G140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:G143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:G146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:G148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="E150:G150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:G151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="E152:G152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="E153:G153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="E155:G155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="E157:G157"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="D159:G159"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="E161:G161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:G162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="E163:G163"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="E164:G164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="E165:G165"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="E166:G166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="E167:G167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="E171:G171"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="D173:G173"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="E174:G174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="E175:G175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="E176:G176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="E177:G177"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:G179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="E180:G180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="E181:G181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="E185:G185"/>
+    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="C187:G187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:G188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B191:F191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="B193:F193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="E194:G194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="E195:G195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="E201:G201"/>
+    <mergeCell ref="B202:E202"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="E203:G203"/>
+    <mergeCell ref="B204:E204"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="E205:G205"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="F206:G206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="E209:G209"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="E211:G211"/>
+    <mergeCell ref="B212:E212"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="E213:G213"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="E217:G217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="E219:G219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:G221"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="E222:G222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:G223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="E225:G225"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="D227:G227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="E228:G228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="E229:G229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="D230:G230"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="E232:G232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="D233:G233"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="E234:G234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="E235:G235"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="E236:G236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="E237:G237"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="E238:G238"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="F239:G239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:G240"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="E241:G241"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="E242:G242"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="F243:G243"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="B245:E245"/>
+    <mergeCell ref="F245:G245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:G246"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="E247:G247"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="E248:G248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:G249"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="E250:G250"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="E251:G251"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="E252:G252"/>
+    <mergeCell ref="B253:E253"/>
+    <mergeCell ref="F253:G253"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="E254:G254"/>
+    <mergeCell ref="B255:E255"/>
+    <mergeCell ref="F255:G255"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="E256:G256"/>
+    <mergeCell ref="B257:E257"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="D258:G258"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="E259:G259"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="E260:G260"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="E261:G261"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="E262:G262"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="E263:G263"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="E264:G264"/>
+    <mergeCell ref="B265:E265"/>
+    <mergeCell ref="F265:G265"/>
+    <mergeCell ref="C266:G266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:G267"/>
+    <mergeCell ref="B268:D268"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="D271:G271"/>
+    <mergeCell ref="B272:D272"/>
+    <mergeCell ref="E272:G272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="E273:G273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="E274:G274"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="E275:G275"/>
+    <mergeCell ref="B276:D276"/>
+    <mergeCell ref="E276:G276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="D277:G277"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="E278:G278"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="E279:G279"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="B281:D281"/>
+    <mergeCell ref="E281:G281"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="E282:G282"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="E283:G283"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="E284:G284"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="B286:D286"/>
+    <mergeCell ref="E286:G286"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="E288:G288"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="B290:D290"/>
+    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="B292:D292"/>
+    <mergeCell ref="E292:G292"/>
+    <mergeCell ref="B293:E293"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="E294:G294"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="B296:D296"/>
+    <mergeCell ref="E296:G296"/>
+    <mergeCell ref="B297:E297"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="B298:D298"/>
+    <mergeCell ref="E298:G298"/>
+    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:G300"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="E301:G301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:G302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="E303:G303"/>
+    <mergeCell ref="B304:C304"/>
+    <mergeCell ref="D304:G304"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="E305:G305"/>
+    <mergeCell ref="B306:D306"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="B307:D307"/>
+    <mergeCell ref="E307:G307"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="E308:G308"/>
+    <mergeCell ref="B309:D309"/>
+    <mergeCell ref="E309:G309"/>
+    <mergeCell ref="B310:D310"/>
+    <mergeCell ref="E310:G310"/>
+    <mergeCell ref="B311:D311"/>
+    <mergeCell ref="E311:G311"/>
+    <mergeCell ref="B312:D312"/>
+    <mergeCell ref="E312:G312"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="C314:G314"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:G315"/>
+    <mergeCell ref="B316:D316"/>
+    <mergeCell ref="E316:G316"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="E317:G317"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="E318:G318"/>
+    <mergeCell ref="B319:C319"/>
+    <mergeCell ref="D319:G319"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="E320:G320"/>
+    <mergeCell ref="B321:D321"/>
+    <mergeCell ref="E321:G321"/>
+    <mergeCell ref="B322:C322"/>
+    <mergeCell ref="D322:G322"/>
+    <mergeCell ref="B323:D323"/>
+    <mergeCell ref="E323:G323"/>
+    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="E324:G324"/>
+    <mergeCell ref="B325:D325"/>
+    <mergeCell ref="E325:G325"/>
+    <mergeCell ref="B326:D326"/>
+    <mergeCell ref="E326:G326"/>
+    <mergeCell ref="B327:D327"/>
+    <mergeCell ref="E327:G327"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="E328:G328"/>
+    <mergeCell ref="B329:E329"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="E330:G330"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="B332:C332"/>
+    <mergeCell ref="D332:G332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="E333:G333"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="E335:G335"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="E336:G336"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="E337:G337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:G338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="E339:G339"/>
+    <mergeCell ref="B340:D340"/>
+    <mergeCell ref="E340:G340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="D341:G341"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="E342:G342"/>
+    <mergeCell ref="B343:D343"/>
+    <mergeCell ref="E343:G343"/>
+    <mergeCell ref="B344:D344"/>
+    <mergeCell ref="E344:G344"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="E345:G345"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="E346:G346"/>
+    <mergeCell ref="B347:E347"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="B348:C348"/>
+    <mergeCell ref="D348:G348"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="E349:G349"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="E350:G350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="E351:G351"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="E352:G352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="E353:G353"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="E354:G354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="E355:G355"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="E356:G356"/>
+    <mergeCell ref="B357:E357"/>
+    <mergeCell ref="F357:G357"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="E358:G358"/>
+    <mergeCell ref="B359:E359"/>
+    <mergeCell ref="F359:G359"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="B361:E361"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="E362:G362"/>
+    <mergeCell ref="B363:E363"/>
+    <mergeCell ref="F363:G363"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="E366:G366"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="B368:C368"/>
+    <mergeCell ref="D368:G368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="B371:C371"/>
+    <mergeCell ref="D371:G371"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="E373:G373"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="E374:G374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="E375:G375"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="E376:G376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="D377:G377"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="E378:G378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="E379:G379"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="B382:C382"/>
+    <mergeCell ref="D382:G382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="E383:G383"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="E384:G384"/>
+    <mergeCell ref="B385:E385"/>
+    <mergeCell ref="F385:G385"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="E386:G386"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="E388:G388"/>
+    <mergeCell ref="B389:E389"/>
+    <mergeCell ref="F389:G389"/>
+    <mergeCell ref="B390:C390"/>
+    <mergeCell ref="D390:G390"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="E391:G391"/>
+    <mergeCell ref="B392:D392"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="B393:D393"/>
+    <mergeCell ref="E393:G393"/>
+    <mergeCell ref="B394:D394"/>
+    <mergeCell ref="E394:G394"/>
+    <mergeCell ref="B395:C395"/>
+    <mergeCell ref="D395:G395"/>
+    <mergeCell ref="B396:D396"/>
+    <mergeCell ref="E396:G396"/>
+    <mergeCell ref="B397:D397"/>
+    <mergeCell ref="E397:G397"/>
+    <mergeCell ref="B398:C398"/>
+    <mergeCell ref="D398:G398"/>
+    <mergeCell ref="B399:D399"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="B400:D400"/>
+    <mergeCell ref="E400:G400"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="E401:G401"/>
+    <mergeCell ref="C402:G402"/>
+    <mergeCell ref="B403:C403"/>
+    <mergeCell ref="D403:G403"/>
+    <mergeCell ref="B404:D404"/>
+    <mergeCell ref="E404:G404"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="E405:G405"/>
+    <mergeCell ref="B406:C406"/>
+    <mergeCell ref="D406:G406"/>
+    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="E407:G407"/>
+    <mergeCell ref="B408:D408"/>
+    <mergeCell ref="E408:G408"/>
+    <mergeCell ref="B409:D409"/>
+    <mergeCell ref="E409:G409"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="E410:G410"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="E411:G411"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="E412:G412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="E413:G413"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="E414:G414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="E415:G415"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="E416:G416"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="E417:G417"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="E418:G418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="E419:G419"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="E420:G420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="E421:G421"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="E422:G422"/>
+    <mergeCell ref="B423:D423"/>
+    <mergeCell ref="E423:G423"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="E424:G424"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="E425:G425"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="E426:G426"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="E427:G427"/>
+    <mergeCell ref="B428:C428"/>
+    <mergeCell ref="D428:G428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="E429:G429"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="E430:G430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="E432:G432"/>
+    <mergeCell ref="B433:C433"/>
+    <mergeCell ref="D433:G433"/>
+    <mergeCell ref="B434:D434"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="B435:D435"/>
+    <mergeCell ref="E435:G435"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="E436:G436"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="E437:G437"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="E438:G438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="E439:G439"/>
+    <mergeCell ref="B440:D440"/>
+    <mergeCell ref="E440:G440"/>
+    <mergeCell ref="B441:D441"/>
+    <mergeCell ref="E441:G441"/>
+    <mergeCell ref="B442:D442"/>
+    <mergeCell ref="E442:G442"/>
+    <mergeCell ref="B443:D443"/>
+    <mergeCell ref="E443:G443"/>
+    <mergeCell ref="B444:D444"/>
+    <mergeCell ref="E444:G444"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="E445:G445"/>
+    <mergeCell ref="B446:C446"/>
+    <mergeCell ref="D446:G446"/>
+    <mergeCell ref="B447:D447"/>
+    <mergeCell ref="E447:G447"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="E448:G448"/>
+    <mergeCell ref="B449:D449"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="B450:D450"/>
+    <mergeCell ref="E450:G450"/>
+    <mergeCell ref="B451:D451"/>
+    <mergeCell ref="E451:G451"/>
+    <mergeCell ref="B452:D452"/>
+    <mergeCell ref="E452:G452"/>
+    <mergeCell ref="B453:D453"/>
+    <mergeCell ref="E453:G453"/>
+    <mergeCell ref="B454:D454"/>
+    <mergeCell ref="E454:G454"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="E455:G455"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="B457:D457"/>
+    <mergeCell ref="E457:G457"/>
+    <mergeCell ref="B458:E458"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="B459:C459"/>
+    <mergeCell ref="D459:G459"/>
+    <mergeCell ref="B460:D460"/>
+    <mergeCell ref="E460:G460"/>
+    <mergeCell ref="B461:D461"/>
+    <mergeCell ref="E461:G461"/>
+    <mergeCell ref="B462:D462"/>
+    <mergeCell ref="E462:G462"/>
+    <mergeCell ref="B463:D463"/>
+    <mergeCell ref="E463:G463"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="B465:E465"/>
+    <mergeCell ref="F465:G465"/>
+    <mergeCell ref="C466:G466"/>
+    <mergeCell ref="B467:C467"/>
+    <mergeCell ref="D467:G467"/>
+    <mergeCell ref="B468:D468"/>
+    <mergeCell ref="E468:G468"/>
+    <mergeCell ref="B469:C469"/>
+    <mergeCell ref="D469:G469"/>
+    <mergeCell ref="B470:C470"/>
+    <mergeCell ref="D470:G470"/>
+    <mergeCell ref="B471:D471"/>
+    <mergeCell ref="E471:G471"/>
+    <mergeCell ref="B472:D472"/>
+    <mergeCell ref="E472:G472"/>
+    <mergeCell ref="B473:D473"/>
+    <mergeCell ref="E473:G473"/>
+    <mergeCell ref="B474:D474"/>
+    <mergeCell ref="E474:G474"/>
+    <mergeCell ref="B475:C475"/>
+    <mergeCell ref="D475:G475"/>
+    <mergeCell ref="B476:D476"/>
+    <mergeCell ref="E476:G476"/>
+    <mergeCell ref="B477:D477"/>
+    <mergeCell ref="E477:G477"/>
+    <mergeCell ref="B478:D478"/>
+    <mergeCell ref="E478:G478"/>
+    <mergeCell ref="B479:D479"/>
+    <mergeCell ref="E479:G479"/>
+    <mergeCell ref="B480:D480"/>
+    <mergeCell ref="E480:G480"/>
+    <mergeCell ref="B481:D481"/>
+    <mergeCell ref="E481:G481"/>
+    <mergeCell ref="B482:D482"/>
+    <mergeCell ref="E482:G482"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="E483:G483"/>
+    <mergeCell ref="B484:E484"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="B485:D485"/>
+    <mergeCell ref="E485:G485"/>
+    <mergeCell ref="B486:E486"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="B487:D487"/>
+    <mergeCell ref="E487:G487"/>
+    <mergeCell ref="B488:E488"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="B489:C489"/>
+    <mergeCell ref="D489:G489"/>
+    <mergeCell ref="B490:D490"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="B491:D491"/>
+    <mergeCell ref="E491:G491"/>
+    <mergeCell ref="B492:D492"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="B493:D493"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="B494:D494"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="B495:D495"/>
+    <mergeCell ref="E495:G495"/>
+    <mergeCell ref="B496:D496"/>
+    <mergeCell ref="E496:G496"/>
+    <mergeCell ref="B497:D497"/>
+    <mergeCell ref="E497:G497"/>
+    <mergeCell ref="B498:D498"/>
+    <mergeCell ref="E498:G498"/>
+    <mergeCell ref="B499:D499"/>
+    <mergeCell ref="E499:G499"/>
+    <mergeCell ref="B500:D500"/>
+    <mergeCell ref="E500:G500"/>
+    <mergeCell ref="B501:C501"/>
+    <mergeCell ref="D501:G501"/>
+    <mergeCell ref="B502:D502"/>
+    <mergeCell ref="E502:G502"/>
+    <mergeCell ref="B503:D503"/>
+    <mergeCell ref="E503:G503"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="E504:G504"/>
+    <mergeCell ref="B505:D505"/>
+    <mergeCell ref="E505:G505"/>
+    <mergeCell ref="B506:D506"/>
+    <mergeCell ref="E506:G506"/>
+    <mergeCell ref="B507:D507"/>
+    <mergeCell ref="E507:G507"/>
+    <mergeCell ref="B508:C508"/>
+    <mergeCell ref="D508:G508"/>
+    <mergeCell ref="B509:D509"/>
+    <mergeCell ref="E509:G509"/>
+    <mergeCell ref="B510:D510"/>
+    <mergeCell ref="E510:G510"/>
+    <mergeCell ref="B511:C511"/>
+    <mergeCell ref="D511:G511"/>
+    <mergeCell ref="B512:D512"/>
+    <mergeCell ref="E512:G512"/>
+    <mergeCell ref="B513:C513"/>
+    <mergeCell ref="D513:G513"/>
+    <mergeCell ref="B514:D514"/>
+    <mergeCell ref="E514:G514"/>
+    <mergeCell ref="B515:D515"/>
+    <mergeCell ref="E515:G515"/>
+    <mergeCell ref="B516:C516"/>
+    <mergeCell ref="D516:G516"/>
+    <mergeCell ref="B517:D517"/>
+    <mergeCell ref="E517:G517"/>
+    <mergeCell ref="B518:C518"/>
+    <mergeCell ref="D518:G518"/>
+    <mergeCell ref="B519:D519"/>
+    <mergeCell ref="E519:G519"/>
+    <mergeCell ref="B520:D520"/>
+    <mergeCell ref="E520:G520"/>
+    <mergeCell ref="B521:D521"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="B522:C522"/>
+    <mergeCell ref="D522:G522"/>
+    <mergeCell ref="B523:D523"/>
+    <mergeCell ref="E523:G523"/>
+    <mergeCell ref="C524:G524"/>
+    <mergeCell ref="B525:C525"/>
+    <mergeCell ref="D525:G525"/>
+    <mergeCell ref="B526:C526"/>
+    <mergeCell ref="D526:G526"/>
+    <mergeCell ref="B527:C527"/>
+    <mergeCell ref="D527:G527"/>
+    <mergeCell ref="B528:D528"/>
+    <mergeCell ref="E528:G528"/>
+    <mergeCell ref="B529:D529"/>
+    <mergeCell ref="E529:G529"/>
+    <mergeCell ref="B530:D530"/>
+    <mergeCell ref="E530:G530"/>
+    <mergeCell ref="B531:D531"/>
+    <mergeCell ref="E531:G531"/>
+    <mergeCell ref="B532:C532"/>
+    <mergeCell ref="D532:G532"/>
+    <mergeCell ref="B533:D533"/>
+    <mergeCell ref="E533:G533"/>
+    <mergeCell ref="B534:C534"/>
+    <mergeCell ref="D534:G534"/>
+    <mergeCell ref="B535:D535"/>
+    <mergeCell ref="E535:G535"/>
+    <mergeCell ref="B536:C536"/>
+    <mergeCell ref="D536:G536"/>
+    <mergeCell ref="B537:D537"/>
+    <mergeCell ref="E537:G537"/>
+    <mergeCell ref="B538:D538"/>
+    <mergeCell ref="E538:G538"/>
+    <mergeCell ref="B539:D539"/>
+    <mergeCell ref="E539:G539"/>
+    <mergeCell ref="B540:D540"/>
+    <mergeCell ref="E540:G540"/>
+    <mergeCell ref="B541:D541"/>
+    <mergeCell ref="E541:G541"/>
+    <mergeCell ref="B542:D542"/>
+    <mergeCell ref="E542:G542"/>
+    <mergeCell ref="B543:C543"/>
+    <mergeCell ref="D543:G543"/>
+    <mergeCell ref="B544:D544"/>
+    <mergeCell ref="E544:G544"/>
+    <mergeCell ref="B545:D545"/>
+    <mergeCell ref="E545:G545"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="F546:G546"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="D547:G547"/>
+    <mergeCell ref="B548:D548"/>
+    <mergeCell ref="E548:G548"/>
+    <mergeCell ref="B549:C549"/>
+    <mergeCell ref="D549:G549"/>
+    <mergeCell ref="B550:D550"/>
+    <mergeCell ref="E550:G550"/>
+    <mergeCell ref="B551:D551"/>
+    <mergeCell ref="E551:G551"/>
+    <mergeCell ref="B552:D552"/>
+    <mergeCell ref="E552:G552"/>
+    <mergeCell ref="B553:E553"/>
+    <mergeCell ref="F553:G553"/>
+    <mergeCell ref="C554:G554"/>
+    <mergeCell ref="B555:C555"/>
+    <mergeCell ref="D555:G555"/>
+    <mergeCell ref="B556:D556"/>
+    <mergeCell ref="E556:G556"/>
+    <mergeCell ref="B557:D557"/>
+    <mergeCell ref="E557:G557"/>
+    <mergeCell ref="B558:D558"/>
+    <mergeCell ref="E558:G558"/>
+    <mergeCell ref="B559:D559"/>
+    <mergeCell ref="E559:G559"/>
+    <mergeCell ref="B560:D560"/>
+    <mergeCell ref="E560:G560"/>
+    <mergeCell ref="B561:D561"/>
+    <mergeCell ref="E561:G561"/>
+    <mergeCell ref="B562:D562"/>
+    <mergeCell ref="E562:G562"/>
+    <mergeCell ref="B563:C563"/>
+    <mergeCell ref="D563:G563"/>
+    <mergeCell ref="B564:D564"/>
+    <mergeCell ref="E564:G564"/>
+    <mergeCell ref="B565:C565"/>
+    <mergeCell ref="D565:G565"/>
+    <mergeCell ref="B566:D566"/>
+    <mergeCell ref="E566:G566"/>
+    <mergeCell ref="B567:C567"/>
+    <mergeCell ref="D567:G567"/>
+    <mergeCell ref="B568:D568"/>
+    <mergeCell ref="E568:G568"/>
+    <mergeCell ref="B569:C569"/>
+    <mergeCell ref="D569:G569"/>
+    <mergeCell ref="B570:D570"/>
+    <mergeCell ref="E570:G570"/>
+    <mergeCell ref="B571:C571"/>
+    <mergeCell ref="D571:G571"/>
+    <mergeCell ref="B572:D572"/>
+    <mergeCell ref="E572:G572"/>
+    <mergeCell ref="B573:C573"/>
+    <mergeCell ref="D573:G573"/>
+    <mergeCell ref="B574:D574"/>
+    <mergeCell ref="E574:G574"/>
+    <mergeCell ref="B575:D575"/>
+    <mergeCell ref="E575:G575"/>
+    <mergeCell ref="B576:D576"/>
+    <mergeCell ref="E576:G576"/>
+    <mergeCell ref="B577:D577"/>
+    <mergeCell ref="E577:G577"/>
+    <mergeCell ref="B578:D578"/>
+    <mergeCell ref="E578:G578"/>
+    <mergeCell ref="B579:D579"/>
+    <mergeCell ref="E579:G579"/>
+    <mergeCell ref="B580:D580"/>
+    <mergeCell ref="E580:G580"/>
+    <mergeCell ref="B581:D581"/>
+    <mergeCell ref="E581:G581"/>
+    <mergeCell ref="B582:E582"/>
+    <mergeCell ref="F582:G582"/>
+    <mergeCell ref="C583:G583"/>
+    <mergeCell ref="B584:C584"/>
+    <mergeCell ref="D584:G584"/>
+    <mergeCell ref="B585:C585"/>
+    <mergeCell ref="D585:G585"/>
+    <mergeCell ref="B586:C586"/>
+    <mergeCell ref="D586:G586"/>
+    <mergeCell ref="B587:C587"/>
+    <mergeCell ref="D587:G587"/>
+    <mergeCell ref="B588:C588"/>
+    <mergeCell ref="D588:G588"/>
+    <mergeCell ref="B589:C589"/>
+    <mergeCell ref="D589:G589"/>
+    <mergeCell ref="B590:C590"/>
+    <mergeCell ref="D590:G590"/>
+    <mergeCell ref="B591:C591"/>
+    <mergeCell ref="D591:G591"/>
+    <mergeCell ref="B592:C592"/>
+    <mergeCell ref="D592:G592"/>
+    <mergeCell ref="B593:C593"/>
+    <mergeCell ref="D593:G593"/>
+    <mergeCell ref="B594:D594"/>
+    <mergeCell ref="E594:G594"/>
+    <mergeCell ref="B595:C595"/>
+    <mergeCell ref="D595:G595"/>
+    <mergeCell ref="B596:D596"/>
+    <mergeCell ref="E596:G596"/>
+    <mergeCell ref="B597:C597"/>
+    <mergeCell ref="D597:G597"/>
+    <mergeCell ref="B598:C598"/>
+    <mergeCell ref="D598:G598"/>
+    <mergeCell ref="B599:C599"/>
+    <mergeCell ref="D599:G599"/>
+    <mergeCell ref="B601:G601"/>
+    <mergeCell ref="C602:G602"/>
+    <mergeCell ref="B603:C603"/>
+    <mergeCell ref="D603:G603"/>
+    <mergeCell ref="B604:C604"/>
+    <mergeCell ref="D604:G604"/>
+    <mergeCell ref="B605:C605"/>
+    <mergeCell ref="D605:G605"/>
+    <mergeCell ref="B606:C606"/>
+    <mergeCell ref="D606:G606"/>
+    <mergeCell ref="B607:C607"/>
+    <mergeCell ref="D607:G607"/>
+    <mergeCell ref="B608:C608"/>
+    <mergeCell ref="D608:G608"/>
+    <mergeCell ref="C609:G609"/>
+    <mergeCell ref="B610:C610"/>
+    <mergeCell ref="D610:G610"/>
+    <mergeCell ref="B611:D611"/>
+    <mergeCell ref="E611:G611"/>
+    <mergeCell ref="B612:D612"/>
+    <mergeCell ref="E612:G612"/>
+    <mergeCell ref="B613:C613"/>
+    <mergeCell ref="D613:G613"/>
+    <mergeCell ref="B614:C614"/>
+    <mergeCell ref="D614:G614"/>
+    <mergeCell ref="B615:D615"/>
+    <mergeCell ref="E615:G615"/>
+    <mergeCell ref="B616:D616"/>
+    <mergeCell ref="E616:G616"/>
+    <mergeCell ref="B617:C617"/>
+    <mergeCell ref="D617:G617"/>
+    <mergeCell ref="B618:C618"/>
+    <mergeCell ref="D618:G618"/>
+    <mergeCell ref="B619:D619"/>
+    <mergeCell ref="E619:G619"/>
+    <mergeCell ref="B620:D620"/>
+    <mergeCell ref="E620:G620"/>
+    <mergeCell ref="B621:C621"/>
+    <mergeCell ref="D621:G621"/>
+    <mergeCell ref="B622:C622"/>
+    <mergeCell ref="D622:G622"/>
+    <mergeCell ref="B623:C623"/>
+    <mergeCell ref="D623:G623"/>
+    <mergeCell ref="B624:C624"/>
+    <mergeCell ref="D624:G624"/>
+    <mergeCell ref="B625:C625"/>
+    <mergeCell ref="D625:G625"/>
+    <mergeCell ref="B626:C626"/>
+    <mergeCell ref="D626:G626"/>
+    <mergeCell ref="B627:C627"/>
+    <mergeCell ref="D627:G627"/>
+    <mergeCell ref="B628:C628"/>
+    <mergeCell ref="D628:G628"/>
+    <mergeCell ref="B629:C629"/>
+    <mergeCell ref="D629:G629"/>
+    <mergeCell ref="C630:G630"/>
+    <mergeCell ref="C631:G631"/>
+    <mergeCell ref="C632:G632"/>
+    <mergeCell ref="C633:G633"/>
+    <mergeCell ref="C634:G634"/>
+    <mergeCell ref="B635:C635"/>
+    <mergeCell ref="D635:G635"/>
+    <mergeCell ref="B636:D636"/>
+    <mergeCell ref="E636:G636"/>
+    <mergeCell ref="B637:C637"/>
+    <mergeCell ref="D637:G637"/>
+    <mergeCell ref="B638:C638"/>
+    <mergeCell ref="D638:G638"/>
+    <mergeCell ref="B639:C639"/>
+    <mergeCell ref="D639:G639"/>
+    <mergeCell ref="B640:C640"/>
+    <mergeCell ref="D640:G640"/>
+    <mergeCell ref="B641:C641"/>
+    <mergeCell ref="D641:G641"/>
+    <mergeCell ref="B642:C642"/>
+    <mergeCell ref="D642:G642"/>
+    <mergeCell ref="B643:D643"/>
+    <mergeCell ref="E643:G643"/>
+    <mergeCell ref="B644:C644"/>
+    <mergeCell ref="D644:G644"/>
+    <mergeCell ref="B645:D645"/>
+    <mergeCell ref="E645:G645"/>
+    <mergeCell ref="B646:D646"/>
+    <mergeCell ref="E646:G646"/>
+    <mergeCell ref="B647:D647"/>
+    <mergeCell ref="E647:G647"/>
+    <mergeCell ref="B648:D648"/>
+    <mergeCell ref="E648:G648"/>
+    <mergeCell ref="B649:D649"/>
+    <mergeCell ref="E649:G649"/>
+    <mergeCell ref="B650:C650"/>
+    <mergeCell ref="D650:G650"/>
+    <mergeCell ref="B651:D651"/>
+    <mergeCell ref="E651:G651"/>
+    <mergeCell ref="B652:D652"/>
+    <mergeCell ref="E652:G652"/>
+    <mergeCell ref="B653:D653"/>
+    <mergeCell ref="E653:G653"/>
+    <mergeCell ref="B654:D654"/>
+    <mergeCell ref="E654:G654"/>
+    <mergeCell ref="B655:D655"/>
+    <mergeCell ref="E655:G655"/>
+    <mergeCell ref="B656:C656"/>
+    <mergeCell ref="D656:G656"/>
+    <mergeCell ref="B657:D657"/>
+    <mergeCell ref="E657:G657"/>
+    <mergeCell ref="B658:C658"/>
+    <mergeCell ref="D658:G658"/>
+    <mergeCell ref="B659:D659"/>
+    <mergeCell ref="E659:G659"/>
+    <mergeCell ref="B660:C660"/>
+    <mergeCell ref="D660:G660"/>
+    <mergeCell ref="B661:D661"/>
+    <mergeCell ref="E661:G661"/>
+    <mergeCell ref="B662:D662"/>
+    <mergeCell ref="E662:G662"/>
+    <mergeCell ref="B663:D663"/>
+    <mergeCell ref="E663:G663"/>
+    <mergeCell ref="B664:C664"/>
+    <mergeCell ref="D664:G664"/>
+    <mergeCell ref="B665:D665"/>
+    <mergeCell ref="E665:G665"/>
+    <mergeCell ref="B666:C666"/>
+    <mergeCell ref="D666:G666"/>
+    <mergeCell ref="B667:D667"/>
+    <mergeCell ref="E667:G667"/>
+    <mergeCell ref="B668:C668"/>
+    <mergeCell ref="D668:G668"/>
+    <mergeCell ref="B669:D669"/>
+    <mergeCell ref="E669:G669"/>
+    <mergeCell ref="B670:C670"/>
+    <mergeCell ref="D670:G670"/>
+    <mergeCell ref="B671:D671"/>
+    <mergeCell ref="E671:G671"/>
+    <mergeCell ref="B672:D672"/>
+    <mergeCell ref="E672:G672"/>
+    <mergeCell ref="B673:C673"/>
+    <mergeCell ref="D673:G673"/>
+    <mergeCell ref="B674:D674"/>
+    <mergeCell ref="E674:G674"/>
+    <mergeCell ref="B675:C675"/>
+    <mergeCell ref="D675:G675"/>
+    <mergeCell ref="B676:C676"/>
+    <mergeCell ref="D676:G676"/>
+    <mergeCell ref="B677:C677"/>
+    <mergeCell ref="D677:G677"/>
+    <mergeCell ref="B678:C678"/>
+    <mergeCell ref="D678:G678"/>
+    <mergeCell ref="B679:D679"/>
+    <mergeCell ref="E679:G679"/>
+    <mergeCell ref="B680:D680"/>
+    <mergeCell ref="E680:G680"/>
+    <mergeCell ref="B681:C681"/>
+    <mergeCell ref="D681:G681"/>
+    <mergeCell ref="B682:C682"/>
+    <mergeCell ref="D682:G682"/>
+    <mergeCell ref="B683:D683"/>
+    <mergeCell ref="E683:G683"/>
+    <mergeCell ref="B684:C684"/>
+    <mergeCell ref="D684:G684"/>
+    <mergeCell ref="B685:D685"/>
+    <mergeCell ref="E685:G685"/>
+    <mergeCell ref="C686:G686"/>
+    <mergeCell ref="C687:G687"/>
+    <mergeCell ref="C688:G688"/>
+    <mergeCell ref="C689:G689"/>
+    <mergeCell ref="B691:G691"/>
+    <mergeCell ref="C692:G692"/>
+    <mergeCell ref="C693:G693"/>
+    <mergeCell ref="C694:G694"/>
+    <mergeCell ref="C695:G695"/>
+    <mergeCell ref="C696:G696"/>
+    <mergeCell ref="C697:G697"/>
+    <mergeCell ref="C698:G698"/>
+    <mergeCell ref="C699:G699"/>
+    <mergeCell ref="C700:G700"/>
+    <mergeCell ref="C701:G701"/>
+    <mergeCell ref="C702:G702"/>
+    <mergeCell ref="C703:G703"/>
+    <mergeCell ref="C704:G704"/>
+    <mergeCell ref="C705:G705"/>
+    <mergeCell ref="C706:G706"/>
+    <mergeCell ref="C707:G707"/>
+    <mergeCell ref="C708:G708"/>
+    <mergeCell ref="C709:G709"/>
+    <mergeCell ref="C710:G710"/>
+    <mergeCell ref="C711:G711"/>
+    <mergeCell ref="C712:G712"/>
+    <mergeCell ref="C713:G713"/>
+    <mergeCell ref="C714:G714"/>
+    <mergeCell ref="C715:G715"/>
+    <mergeCell ref="C716:G716"/>
+    <mergeCell ref="B717:C717"/>
+    <mergeCell ref="D717:G717"/>
+    <mergeCell ref="B718:C718"/>
+    <mergeCell ref="D718:G718"/>
+    <mergeCell ref="B719:C719"/>
+    <mergeCell ref="D719:G719"/>
+    <mergeCell ref="B720:C720"/>
+    <mergeCell ref="D720:G720"/>
+    <mergeCell ref="B721:C721"/>
+    <mergeCell ref="D721:G721"/>
+    <mergeCell ref="B722:C722"/>
+    <mergeCell ref="D722:G722"/>
+    <mergeCell ref="B723:C723"/>
+    <mergeCell ref="D723:G723"/>
+    <mergeCell ref="B724:C724"/>
+    <mergeCell ref="D724:G724"/>
+    <mergeCell ref="B725:C725"/>
+    <mergeCell ref="D725:G725"/>
+    <mergeCell ref="B726:C726"/>
+    <mergeCell ref="D726:G726"/>
+    <mergeCell ref="B727:C727"/>
+    <mergeCell ref="D727:G727"/>
+    <mergeCell ref="B728:C728"/>
+    <mergeCell ref="D728:G728"/>
+    <mergeCell ref="B729:C729"/>
+    <mergeCell ref="D729:G729"/>
+    <mergeCell ref="B730:C730"/>
+    <mergeCell ref="D730:G730"/>
+    <mergeCell ref="B731:C731"/>
+    <mergeCell ref="D731:G731"/>
+    <mergeCell ref="B732:C732"/>
+    <mergeCell ref="D732:G732"/>
+    <mergeCell ref="B733:C733"/>
+    <mergeCell ref="D733:G733"/>
+    <mergeCell ref="B734:C734"/>
+    <mergeCell ref="D734:G734"/>
+    <mergeCell ref="B735:C735"/>
+    <mergeCell ref="D735:G735"/>
+    <mergeCell ref="B736:C736"/>
+    <mergeCell ref="D736:G736"/>
+    <mergeCell ref="B737:C737"/>
+    <mergeCell ref="D737:G737"/>
+    <mergeCell ref="B738:C738"/>
+    <mergeCell ref="D738:G738"/>
+    <mergeCell ref="B739:C739"/>
+    <mergeCell ref="D739:G739"/>
+    <mergeCell ref="B740:C740"/>
+    <mergeCell ref="D740:G740"/>
+    <mergeCell ref="B741:C741"/>
+    <mergeCell ref="D741:G741"/>
+    <mergeCell ref="B742:C742"/>
+    <mergeCell ref="D742:G742"/>
+    <mergeCell ref="B743:C743"/>
+    <mergeCell ref="D743:G743"/>
+    <mergeCell ref="B744:C744"/>
+    <mergeCell ref="D744:G744"/>
+    <mergeCell ref="B745:C745"/>
+    <mergeCell ref="D745:G745"/>
+    <mergeCell ref="B746:C746"/>
+    <mergeCell ref="D746:G746"/>
+    <mergeCell ref="B747:C747"/>
+    <mergeCell ref="D747:G747"/>
+    <mergeCell ref="B748:C748"/>
+    <mergeCell ref="D748:G748"/>
+    <mergeCell ref="B749:C749"/>
+    <mergeCell ref="D749:G749"/>
+    <mergeCell ref="B750:C750"/>
+    <mergeCell ref="D750:G750"/>
+    <mergeCell ref="B751:C751"/>
+    <mergeCell ref="D751:G751"/>
+    <mergeCell ref="B752:C752"/>
+    <mergeCell ref="D752:G752"/>
+    <mergeCell ref="B753:C753"/>
+    <mergeCell ref="D753:G753"/>
+    <mergeCell ref="B754:C754"/>
+    <mergeCell ref="D754:G754"/>
+    <mergeCell ref="B755:C755"/>
+    <mergeCell ref="D755:G755"/>
+    <mergeCell ref="B756:C756"/>
+    <mergeCell ref="D756:G756"/>
+    <mergeCell ref="B757:C757"/>
+    <mergeCell ref="D757:G757"/>
+    <mergeCell ref="B758:C758"/>
+    <mergeCell ref="D758:G758"/>
+    <mergeCell ref="B759:C759"/>
+    <mergeCell ref="D759:G759"/>
+    <mergeCell ref="B760:C760"/>
+    <mergeCell ref="D760:G760"/>
+    <mergeCell ref="B761:C761"/>
+    <mergeCell ref="D761:G761"/>
+    <mergeCell ref="B762:C762"/>
+    <mergeCell ref="D762:G762"/>
+    <mergeCell ref="B763:C763"/>
+    <mergeCell ref="D763:G763"/>
+    <mergeCell ref="B764:C764"/>
+    <mergeCell ref="D764:G764"/>
+    <mergeCell ref="B765:C765"/>
+    <mergeCell ref="D765:G765"/>
+    <mergeCell ref="B766:C766"/>
+    <mergeCell ref="D766:G766"/>
+    <mergeCell ref="B767:C767"/>
+    <mergeCell ref="D767:G767"/>
+    <mergeCell ref="B768:C768"/>
+    <mergeCell ref="D768:G768"/>
+    <mergeCell ref="B769:C769"/>
+    <mergeCell ref="D769:G769"/>
+    <mergeCell ref="B770:C770"/>
+    <mergeCell ref="D770:G770"/>
+    <mergeCell ref="B771:C771"/>
+    <mergeCell ref="D771:G771"/>
+    <mergeCell ref="B772:C772"/>
+    <mergeCell ref="D772:G772"/>
+    <mergeCell ref="B773:C773"/>
+    <mergeCell ref="D773:G773"/>
+    <mergeCell ref="B774:C774"/>
+    <mergeCell ref="D774:G774"/>
+    <mergeCell ref="B775:C775"/>
+    <mergeCell ref="D775:G775"/>
+    <mergeCell ref="B776:C776"/>
+    <mergeCell ref="D776:G776"/>
+    <mergeCell ref="B777:C777"/>
+    <mergeCell ref="D777:G777"/>
+    <mergeCell ref="B778:C778"/>
+    <mergeCell ref="D778:G778"/>
+    <mergeCell ref="B779:C779"/>
+    <mergeCell ref="D779:G779"/>
+    <mergeCell ref="B780:C780"/>
+    <mergeCell ref="D780:G780"/>
+    <mergeCell ref="B781:C781"/>
+    <mergeCell ref="D781:G781"/>
+    <mergeCell ref="B782:C782"/>
+    <mergeCell ref="D782:G782"/>
+    <mergeCell ref="B783:C783"/>
+    <mergeCell ref="D783:G783"/>
+    <mergeCell ref="B784:C784"/>
+    <mergeCell ref="D784:G784"/>
+    <mergeCell ref="B785:C785"/>
+    <mergeCell ref="D785:G785"/>
+    <mergeCell ref="B786:C786"/>
+    <mergeCell ref="D786:G786"/>
+    <mergeCell ref="B787:C787"/>
+    <mergeCell ref="D787:G787"/>
+    <mergeCell ref="B788:C788"/>
+    <mergeCell ref="D788:G788"/>
+    <mergeCell ref="B789:C789"/>
+    <mergeCell ref="D789:G789"/>
+    <mergeCell ref="B790:C790"/>
+    <mergeCell ref="D790:G790"/>
+    <mergeCell ref="B791:C791"/>
+    <mergeCell ref="D791:G791"/>
+    <mergeCell ref="B792:C792"/>
+    <mergeCell ref="D792:G792"/>
+    <mergeCell ref="B793:C793"/>
+    <mergeCell ref="D793:G793"/>
+    <mergeCell ref="B794:C794"/>
+    <mergeCell ref="D794:G794"/>
+    <mergeCell ref="B795:C795"/>
+    <mergeCell ref="D795:G795"/>
+    <mergeCell ref="B796:C796"/>
+    <mergeCell ref="D796:G796"/>
+    <mergeCell ref="B797:C797"/>
+    <mergeCell ref="D797:G797"/>
+    <mergeCell ref="C798:G798"/>
     <mergeCell ref="C819:G819"/>
     <mergeCell ref="C820:G820"/>
     <mergeCell ref="B822:G822"/>
@@ -12558,1540 +18356,6 @@
     <mergeCell ref="B815:G815"/>
     <mergeCell ref="C816:G816"/>
     <mergeCell ref="B818:G818"/>
-    <mergeCell ref="B790:C790"/>
-    <mergeCell ref="D790:G790"/>
-    <mergeCell ref="B791:C791"/>
-    <mergeCell ref="D791:G791"/>
-    <mergeCell ref="B792:C792"/>
-    <mergeCell ref="D792:G792"/>
-    <mergeCell ref="B793:C793"/>
-    <mergeCell ref="D793:G793"/>
-    <mergeCell ref="B794:C794"/>
-    <mergeCell ref="D794:G794"/>
-    <mergeCell ref="B795:C795"/>
-    <mergeCell ref="D795:G795"/>
-    <mergeCell ref="B796:C796"/>
-    <mergeCell ref="D796:G796"/>
-    <mergeCell ref="B797:C797"/>
-    <mergeCell ref="D797:G797"/>
-    <mergeCell ref="C798:G798"/>
-    <mergeCell ref="B781:C781"/>
-    <mergeCell ref="D781:G781"/>
-    <mergeCell ref="B782:C782"/>
-    <mergeCell ref="D782:G782"/>
-    <mergeCell ref="B783:C783"/>
-    <mergeCell ref="D783:G783"/>
-    <mergeCell ref="B784:C784"/>
-    <mergeCell ref="D784:G784"/>
-    <mergeCell ref="B785:C785"/>
-    <mergeCell ref="D785:G785"/>
-    <mergeCell ref="B786:C786"/>
-    <mergeCell ref="D786:G786"/>
-    <mergeCell ref="B787:C787"/>
-    <mergeCell ref="D787:G787"/>
-    <mergeCell ref="B788:C788"/>
-    <mergeCell ref="D788:G788"/>
-    <mergeCell ref="B789:C789"/>
-    <mergeCell ref="D789:G789"/>
-    <mergeCell ref="B772:C772"/>
-    <mergeCell ref="D772:G772"/>
-    <mergeCell ref="B773:C773"/>
-    <mergeCell ref="D773:G773"/>
-    <mergeCell ref="B774:C774"/>
-    <mergeCell ref="D774:G774"/>
-    <mergeCell ref="B775:C775"/>
-    <mergeCell ref="D775:G775"/>
-    <mergeCell ref="B776:C776"/>
-    <mergeCell ref="D776:G776"/>
-    <mergeCell ref="B777:C777"/>
-    <mergeCell ref="D777:G777"/>
-    <mergeCell ref="B778:C778"/>
-    <mergeCell ref="D778:G778"/>
-    <mergeCell ref="B779:C779"/>
-    <mergeCell ref="D779:G779"/>
-    <mergeCell ref="B780:C780"/>
-    <mergeCell ref="D780:G780"/>
-    <mergeCell ref="B763:C763"/>
-    <mergeCell ref="D763:G763"/>
-    <mergeCell ref="B764:C764"/>
-    <mergeCell ref="D764:G764"/>
-    <mergeCell ref="B765:C765"/>
-    <mergeCell ref="D765:G765"/>
-    <mergeCell ref="B766:C766"/>
-    <mergeCell ref="D766:G766"/>
-    <mergeCell ref="B767:C767"/>
-    <mergeCell ref="D767:G767"/>
-    <mergeCell ref="B768:C768"/>
-    <mergeCell ref="D768:G768"/>
-    <mergeCell ref="B769:C769"/>
-    <mergeCell ref="D769:G769"/>
-    <mergeCell ref="B770:C770"/>
-    <mergeCell ref="D770:G770"/>
-    <mergeCell ref="B771:C771"/>
-    <mergeCell ref="D771:G771"/>
-    <mergeCell ref="B754:C754"/>
-    <mergeCell ref="D754:G754"/>
-    <mergeCell ref="B755:C755"/>
-    <mergeCell ref="D755:G755"/>
-    <mergeCell ref="B756:C756"/>
-    <mergeCell ref="D756:G756"/>
-    <mergeCell ref="B757:C757"/>
-    <mergeCell ref="D757:G757"/>
-    <mergeCell ref="B758:C758"/>
-    <mergeCell ref="D758:G758"/>
-    <mergeCell ref="B759:C759"/>
-    <mergeCell ref="D759:G759"/>
-    <mergeCell ref="B760:C760"/>
-    <mergeCell ref="D760:G760"/>
-    <mergeCell ref="B761:C761"/>
-    <mergeCell ref="D761:G761"/>
-    <mergeCell ref="B762:C762"/>
-    <mergeCell ref="D762:G762"/>
-    <mergeCell ref="B745:C745"/>
-    <mergeCell ref="D745:G745"/>
-    <mergeCell ref="B746:C746"/>
-    <mergeCell ref="D746:G746"/>
-    <mergeCell ref="B747:C747"/>
-    <mergeCell ref="D747:G747"/>
-    <mergeCell ref="B748:C748"/>
-    <mergeCell ref="D748:G748"/>
-    <mergeCell ref="B749:C749"/>
-    <mergeCell ref="D749:G749"/>
-    <mergeCell ref="B750:C750"/>
-    <mergeCell ref="D750:G750"/>
-    <mergeCell ref="B751:C751"/>
-    <mergeCell ref="D751:G751"/>
-    <mergeCell ref="B752:C752"/>
-    <mergeCell ref="D752:G752"/>
-    <mergeCell ref="B753:C753"/>
-    <mergeCell ref="D753:G753"/>
-    <mergeCell ref="B736:C736"/>
-    <mergeCell ref="D736:G736"/>
-    <mergeCell ref="B737:C737"/>
-    <mergeCell ref="D737:G737"/>
-    <mergeCell ref="B738:C738"/>
-    <mergeCell ref="D738:G738"/>
-    <mergeCell ref="B739:C739"/>
-    <mergeCell ref="D739:G739"/>
-    <mergeCell ref="B740:C740"/>
-    <mergeCell ref="D740:G740"/>
-    <mergeCell ref="B741:C741"/>
-    <mergeCell ref="D741:G741"/>
-    <mergeCell ref="B742:C742"/>
-    <mergeCell ref="D742:G742"/>
-    <mergeCell ref="B743:C743"/>
-    <mergeCell ref="D743:G743"/>
-    <mergeCell ref="B744:C744"/>
-    <mergeCell ref="D744:G744"/>
-    <mergeCell ref="B727:C727"/>
-    <mergeCell ref="D727:G727"/>
-    <mergeCell ref="B728:C728"/>
-    <mergeCell ref="D728:G728"/>
-    <mergeCell ref="B729:C729"/>
-    <mergeCell ref="D729:G729"/>
-    <mergeCell ref="B730:C730"/>
-    <mergeCell ref="D730:G730"/>
-    <mergeCell ref="B731:C731"/>
-    <mergeCell ref="D731:G731"/>
-    <mergeCell ref="B732:C732"/>
-    <mergeCell ref="D732:G732"/>
-    <mergeCell ref="B733:C733"/>
-    <mergeCell ref="D733:G733"/>
-    <mergeCell ref="B734:C734"/>
-    <mergeCell ref="D734:G734"/>
-    <mergeCell ref="B735:C735"/>
-    <mergeCell ref="D735:G735"/>
-    <mergeCell ref="B718:C718"/>
-    <mergeCell ref="D718:G718"/>
-    <mergeCell ref="B719:C719"/>
-    <mergeCell ref="D719:G719"/>
-    <mergeCell ref="B720:C720"/>
-    <mergeCell ref="D720:G720"/>
-    <mergeCell ref="B721:C721"/>
-    <mergeCell ref="D721:G721"/>
-    <mergeCell ref="B722:C722"/>
-    <mergeCell ref="D722:G722"/>
-    <mergeCell ref="B723:C723"/>
-    <mergeCell ref="D723:G723"/>
-    <mergeCell ref="B724:C724"/>
-    <mergeCell ref="D724:G724"/>
-    <mergeCell ref="B725:C725"/>
-    <mergeCell ref="D725:G725"/>
-    <mergeCell ref="B726:C726"/>
-    <mergeCell ref="D726:G726"/>
-    <mergeCell ref="C702:G702"/>
-    <mergeCell ref="C703:G703"/>
-    <mergeCell ref="C704:G704"/>
-    <mergeCell ref="C705:G705"/>
-    <mergeCell ref="C706:G706"/>
-    <mergeCell ref="C707:G707"/>
-    <mergeCell ref="C708:G708"/>
-    <mergeCell ref="C709:G709"/>
-    <mergeCell ref="C710:G710"/>
-    <mergeCell ref="C711:G711"/>
-    <mergeCell ref="C712:G712"/>
-    <mergeCell ref="C713:G713"/>
-    <mergeCell ref="C714:G714"/>
-    <mergeCell ref="C715:G715"/>
-    <mergeCell ref="C716:G716"/>
-    <mergeCell ref="B717:C717"/>
-    <mergeCell ref="D717:G717"/>
-    <mergeCell ref="B685:D685"/>
-    <mergeCell ref="E685:G685"/>
-    <mergeCell ref="C686:G686"/>
-    <mergeCell ref="C687:G687"/>
-    <mergeCell ref="C688:G688"/>
-    <mergeCell ref="C689:G689"/>
-    <mergeCell ref="B691:G691"/>
-    <mergeCell ref="C692:G692"/>
-    <mergeCell ref="C693:G693"/>
-    <mergeCell ref="C694:G694"/>
-    <mergeCell ref="C695:G695"/>
-    <mergeCell ref="C696:G696"/>
-    <mergeCell ref="C697:G697"/>
-    <mergeCell ref="C698:G698"/>
-    <mergeCell ref="C699:G699"/>
-    <mergeCell ref="C700:G700"/>
-    <mergeCell ref="C701:G701"/>
-    <mergeCell ref="B676:C676"/>
-    <mergeCell ref="D676:G676"/>
-    <mergeCell ref="B677:C677"/>
-    <mergeCell ref="D677:G677"/>
-    <mergeCell ref="B678:C678"/>
-    <mergeCell ref="D678:G678"/>
-    <mergeCell ref="B679:D679"/>
-    <mergeCell ref="E679:G679"/>
-    <mergeCell ref="B680:D680"/>
-    <mergeCell ref="E680:G680"/>
-    <mergeCell ref="B681:C681"/>
-    <mergeCell ref="D681:G681"/>
-    <mergeCell ref="B682:C682"/>
-    <mergeCell ref="D682:G682"/>
-    <mergeCell ref="B683:D683"/>
-    <mergeCell ref="E683:G683"/>
-    <mergeCell ref="B684:C684"/>
-    <mergeCell ref="D684:G684"/>
-    <mergeCell ref="B667:D667"/>
-    <mergeCell ref="E667:G667"/>
-    <mergeCell ref="B668:C668"/>
-    <mergeCell ref="D668:G668"/>
-    <mergeCell ref="B669:D669"/>
-    <mergeCell ref="E669:G669"/>
-    <mergeCell ref="B670:C670"/>
-    <mergeCell ref="D670:G670"/>
-    <mergeCell ref="B671:D671"/>
-    <mergeCell ref="E671:G671"/>
-    <mergeCell ref="B672:D672"/>
-    <mergeCell ref="E672:G672"/>
-    <mergeCell ref="B673:C673"/>
-    <mergeCell ref="D673:G673"/>
-    <mergeCell ref="B674:D674"/>
-    <mergeCell ref="E674:G674"/>
-    <mergeCell ref="B675:C675"/>
-    <mergeCell ref="D675:G675"/>
-    <mergeCell ref="B658:C658"/>
-    <mergeCell ref="D658:G658"/>
-    <mergeCell ref="B659:D659"/>
-    <mergeCell ref="E659:G659"/>
-    <mergeCell ref="B660:C660"/>
-    <mergeCell ref="D660:G660"/>
-    <mergeCell ref="B661:D661"/>
-    <mergeCell ref="E661:G661"/>
-    <mergeCell ref="B662:D662"/>
-    <mergeCell ref="E662:G662"/>
-    <mergeCell ref="B663:D663"/>
-    <mergeCell ref="E663:G663"/>
-    <mergeCell ref="B664:C664"/>
-    <mergeCell ref="D664:G664"/>
-    <mergeCell ref="B665:D665"/>
-    <mergeCell ref="E665:G665"/>
-    <mergeCell ref="B666:C666"/>
-    <mergeCell ref="D666:G666"/>
-    <mergeCell ref="B649:D649"/>
-    <mergeCell ref="E649:G649"/>
-    <mergeCell ref="B650:C650"/>
-    <mergeCell ref="D650:G650"/>
-    <mergeCell ref="B651:D651"/>
-    <mergeCell ref="E651:G651"/>
-    <mergeCell ref="B652:D652"/>
-    <mergeCell ref="E652:G652"/>
-    <mergeCell ref="B653:D653"/>
-    <mergeCell ref="E653:G653"/>
-    <mergeCell ref="B654:D654"/>
-    <mergeCell ref="E654:G654"/>
-    <mergeCell ref="B655:D655"/>
-    <mergeCell ref="E655:G655"/>
-    <mergeCell ref="B656:C656"/>
-    <mergeCell ref="D656:G656"/>
-    <mergeCell ref="B657:D657"/>
-    <mergeCell ref="E657:G657"/>
-    <mergeCell ref="B640:C640"/>
-    <mergeCell ref="D640:G640"/>
-    <mergeCell ref="B641:C641"/>
-    <mergeCell ref="D641:G641"/>
-    <mergeCell ref="B642:C642"/>
-    <mergeCell ref="D642:G642"/>
-    <mergeCell ref="B643:D643"/>
-    <mergeCell ref="E643:G643"/>
-    <mergeCell ref="B644:C644"/>
-    <mergeCell ref="D644:G644"/>
-    <mergeCell ref="B645:D645"/>
-    <mergeCell ref="E645:G645"/>
-    <mergeCell ref="B646:D646"/>
-    <mergeCell ref="E646:G646"/>
-    <mergeCell ref="B647:D647"/>
-    <mergeCell ref="E647:G647"/>
-    <mergeCell ref="B648:D648"/>
-    <mergeCell ref="E648:G648"/>
-    <mergeCell ref="B629:C629"/>
-    <mergeCell ref="D629:G629"/>
-    <mergeCell ref="C630:G630"/>
-    <mergeCell ref="C631:G631"/>
-    <mergeCell ref="C632:G632"/>
-    <mergeCell ref="C633:G633"/>
-    <mergeCell ref="C634:G634"/>
-    <mergeCell ref="B635:C635"/>
-    <mergeCell ref="D635:G635"/>
-    <mergeCell ref="B636:D636"/>
-    <mergeCell ref="E636:G636"/>
-    <mergeCell ref="B637:C637"/>
-    <mergeCell ref="D637:G637"/>
-    <mergeCell ref="B638:C638"/>
-    <mergeCell ref="D638:G638"/>
-    <mergeCell ref="B639:C639"/>
-    <mergeCell ref="D639:G639"/>
-    <mergeCell ref="B620:D620"/>
-    <mergeCell ref="E620:G620"/>
-    <mergeCell ref="B621:C621"/>
-    <mergeCell ref="D621:G621"/>
-    <mergeCell ref="B622:C622"/>
-    <mergeCell ref="D622:G622"/>
-    <mergeCell ref="B623:C623"/>
-    <mergeCell ref="D623:G623"/>
-    <mergeCell ref="B624:C624"/>
-    <mergeCell ref="D624:G624"/>
-    <mergeCell ref="B625:C625"/>
-    <mergeCell ref="D625:G625"/>
-    <mergeCell ref="B626:C626"/>
-    <mergeCell ref="D626:G626"/>
-    <mergeCell ref="B627:C627"/>
-    <mergeCell ref="D627:G627"/>
-    <mergeCell ref="B628:C628"/>
-    <mergeCell ref="D628:G628"/>
-    <mergeCell ref="B611:D611"/>
-    <mergeCell ref="E611:G611"/>
-    <mergeCell ref="B612:D612"/>
-    <mergeCell ref="E612:G612"/>
-    <mergeCell ref="B613:C613"/>
-    <mergeCell ref="D613:G613"/>
-    <mergeCell ref="B614:C614"/>
-    <mergeCell ref="D614:G614"/>
-    <mergeCell ref="B615:D615"/>
-    <mergeCell ref="E615:G615"/>
-    <mergeCell ref="B616:D616"/>
-    <mergeCell ref="E616:G616"/>
-    <mergeCell ref="B617:C617"/>
-    <mergeCell ref="D617:G617"/>
-    <mergeCell ref="B618:C618"/>
-    <mergeCell ref="D618:G618"/>
-    <mergeCell ref="B619:D619"/>
-    <mergeCell ref="E619:G619"/>
-    <mergeCell ref="B601:G601"/>
-    <mergeCell ref="C602:G602"/>
-    <mergeCell ref="B603:C603"/>
-    <mergeCell ref="D603:G603"/>
-    <mergeCell ref="B604:C604"/>
-    <mergeCell ref="D604:G604"/>
-    <mergeCell ref="B605:C605"/>
-    <mergeCell ref="D605:G605"/>
-    <mergeCell ref="B606:C606"/>
-    <mergeCell ref="D606:G606"/>
-    <mergeCell ref="B607:C607"/>
-    <mergeCell ref="D607:G607"/>
-    <mergeCell ref="B608:C608"/>
-    <mergeCell ref="D608:G608"/>
-    <mergeCell ref="C609:G609"/>
-    <mergeCell ref="B610:C610"/>
-    <mergeCell ref="D610:G610"/>
-    <mergeCell ref="B591:C591"/>
-    <mergeCell ref="D591:G591"/>
-    <mergeCell ref="B592:C592"/>
-    <mergeCell ref="D592:G592"/>
-    <mergeCell ref="B593:C593"/>
-    <mergeCell ref="D593:G593"/>
-    <mergeCell ref="B594:D594"/>
-    <mergeCell ref="E594:G594"/>
-    <mergeCell ref="B595:C595"/>
-    <mergeCell ref="D595:G595"/>
-    <mergeCell ref="B596:D596"/>
-    <mergeCell ref="E596:G596"/>
-    <mergeCell ref="B597:C597"/>
-    <mergeCell ref="D597:G597"/>
-    <mergeCell ref="B598:C598"/>
-    <mergeCell ref="D598:G598"/>
-    <mergeCell ref="B599:C599"/>
-    <mergeCell ref="D599:G599"/>
-    <mergeCell ref="B582:E582"/>
-    <mergeCell ref="F582:G582"/>
-    <mergeCell ref="C583:G583"/>
-    <mergeCell ref="B584:C584"/>
-    <mergeCell ref="D584:G584"/>
-    <mergeCell ref="B585:C585"/>
-    <mergeCell ref="D585:G585"/>
-    <mergeCell ref="B586:C586"/>
-    <mergeCell ref="D586:G586"/>
-    <mergeCell ref="B587:C587"/>
-    <mergeCell ref="D587:G587"/>
-    <mergeCell ref="B588:C588"/>
-    <mergeCell ref="D588:G588"/>
-    <mergeCell ref="B589:C589"/>
-    <mergeCell ref="D589:G589"/>
-    <mergeCell ref="B590:C590"/>
-    <mergeCell ref="D590:G590"/>
-    <mergeCell ref="B573:C573"/>
-    <mergeCell ref="D573:G573"/>
-    <mergeCell ref="B574:D574"/>
-    <mergeCell ref="E574:G574"/>
-    <mergeCell ref="B575:D575"/>
-    <mergeCell ref="E575:G575"/>
-    <mergeCell ref="B576:D576"/>
-    <mergeCell ref="E576:G576"/>
-    <mergeCell ref="B577:D577"/>
-    <mergeCell ref="E577:G577"/>
-    <mergeCell ref="B578:D578"/>
-    <mergeCell ref="E578:G578"/>
-    <mergeCell ref="B579:D579"/>
-    <mergeCell ref="E579:G579"/>
-    <mergeCell ref="B580:D580"/>
-    <mergeCell ref="E580:G580"/>
-    <mergeCell ref="B581:D581"/>
-    <mergeCell ref="E581:G581"/>
-    <mergeCell ref="B564:D564"/>
-    <mergeCell ref="E564:G564"/>
-    <mergeCell ref="B565:C565"/>
-    <mergeCell ref="D565:G565"/>
-    <mergeCell ref="B566:D566"/>
-    <mergeCell ref="E566:G566"/>
-    <mergeCell ref="B567:C567"/>
-    <mergeCell ref="D567:G567"/>
-    <mergeCell ref="B568:D568"/>
-    <mergeCell ref="E568:G568"/>
-    <mergeCell ref="B569:C569"/>
-    <mergeCell ref="D569:G569"/>
-    <mergeCell ref="B570:D570"/>
-    <mergeCell ref="E570:G570"/>
-    <mergeCell ref="B571:C571"/>
-    <mergeCell ref="D571:G571"/>
-    <mergeCell ref="B572:D572"/>
-    <mergeCell ref="E572:G572"/>
-    <mergeCell ref="B555:C555"/>
-    <mergeCell ref="D555:G555"/>
-    <mergeCell ref="B556:D556"/>
-    <mergeCell ref="E556:G556"/>
-    <mergeCell ref="B557:D557"/>
-    <mergeCell ref="E557:G557"/>
-    <mergeCell ref="B558:D558"/>
-    <mergeCell ref="E558:G558"/>
-    <mergeCell ref="B559:D559"/>
-    <mergeCell ref="E559:G559"/>
-    <mergeCell ref="B560:D560"/>
-    <mergeCell ref="E560:G560"/>
-    <mergeCell ref="B561:D561"/>
-    <mergeCell ref="E561:G561"/>
-    <mergeCell ref="B562:D562"/>
-    <mergeCell ref="E562:G562"/>
-    <mergeCell ref="B563:C563"/>
-    <mergeCell ref="D563:G563"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="F546:G546"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="D547:G547"/>
-    <mergeCell ref="B548:D548"/>
-    <mergeCell ref="E548:G548"/>
-    <mergeCell ref="B549:C549"/>
-    <mergeCell ref="D549:G549"/>
-    <mergeCell ref="B550:D550"/>
-    <mergeCell ref="E550:G550"/>
-    <mergeCell ref="B551:D551"/>
-    <mergeCell ref="E551:G551"/>
-    <mergeCell ref="B552:D552"/>
-    <mergeCell ref="E552:G552"/>
-    <mergeCell ref="B553:E553"/>
-    <mergeCell ref="F553:G553"/>
-    <mergeCell ref="C554:G554"/>
-    <mergeCell ref="B537:D537"/>
-    <mergeCell ref="E537:G537"/>
-    <mergeCell ref="B538:D538"/>
-    <mergeCell ref="E538:G538"/>
-    <mergeCell ref="B539:D539"/>
-    <mergeCell ref="E539:G539"/>
-    <mergeCell ref="B540:D540"/>
-    <mergeCell ref="E540:G540"/>
-    <mergeCell ref="B541:D541"/>
-    <mergeCell ref="E541:G541"/>
-    <mergeCell ref="B542:D542"/>
-    <mergeCell ref="E542:G542"/>
-    <mergeCell ref="B543:C543"/>
-    <mergeCell ref="D543:G543"/>
-    <mergeCell ref="B544:D544"/>
-    <mergeCell ref="E544:G544"/>
-    <mergeCell ref="B545:D545"/>
-    <mergeCell ref="E545:G545"/>
-    <mergeCell ref="B528:D528"/>
-    <mergeCell ref="E528:G528"/>
-    <mergeCell ref="B529:D529"/>
-    <mergeCell ref="E529:G529"/>
-    <mergeCell ref="B530:D530"/>
-    <mergeCell ref="E530:G530"/>
-    <mergeCell ref="B531:D531"/>
-    <mergeCell ref="E531:G531"/>
-    <mergeCell ref="B532:C532"/>
-    <mergeCell ref="D532:G532"/>
-    <mergeCell ref="B533:D533"/>
-    <mergeCell ref="E533:G533"/>
-    <mergeCell ref="B534:C534"/>
-    <mergeCell ref="D534:G534"/>
-    <mergeCell ref="B535:D535"/>
-    <mergeCell ref="E535:G535"/>
-    <mergeCell ref="B536:C536"/>
-    <mergeCell ref="D536:G536"/>
-    <mergeCell ref="B519:D519"/>
-    <mergeCell ref="E519:G519"/>
-    <mergeCell ref="B520:D520"/>
-    <mergeCell ref="E520:G520"/>
-    <mergeCell ref="B521:D521"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="B522:C522"/>
-    <mergeCell ref="D522:G522"/>
-    <mergeCell ref="B523:D523"/>
-    <mergeCell ref="E523:G523"/>
-    <mergeCell ref="C524:G524"/>
-    <mergeCell ref="B525:C525"/>
-    <mergeCell ref="D525:G525"/>
-    <mergeCell ref="B526:C526"/>
-    <mergeCell ref="D526:G526"/>
-    <mergeCell ref="B527:C527"/>
-    <mergeCell ref="D527:G527"/>
-    <mergeCell ref="B510:D510"/>
-    <mergeCell ref="E510:G510"/>
-    <mergeCell ref="B511:C511"/>
-    <mergeCell ref="D511:G511"/>
-    <mergeCell ref="B512:D512"/>
-    <mergeCell ref="E512:G512"/>
-    <mergeCell ref="B513:C513"/>
-    <mergeCell ref="D513:G513"/>
-    <mergeCell ref="B514:D514"/>
-    <mergeCell ref="E514:G514"/>
-    <mergeCell ref="B515:D515"/>
-    <mergeCell ref="E515:G515"/>
-    <mergeCell ref="B516:C516"/>
-    <mergeCell ref="D516:G516"/>
-    <mergeCell ref="B517:D517"/>
-    <mergeCell ref="E517:G517"/>
-    <mergeCell ref="B518:C518"/>
-    <mergeCell ref="D518:G518"/>
-    <mergeCell ref="B501:C501"/>
-    <mergeCell ref="D501:G501"/>
-    <mergeCell ref="B502:D502"/>
-    <mergeCell ref="E502:G502"/>
-    <mergeCell ref="B503:D503"/>
-    <mergeCell ref="E503:G503"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="E504:G504"/>
-    <mergeCell ref="B505:D505"/>
-    <mergeCell ref="E505:G505"/>
-    <mergeCell ref="B506:D506"/>
-    <mergeCell ref="E506:G506"/>
-    <mergeCell ref="B507:D507"/>
-    <mergeCell ref="E507:G507"/>
-    <mergeCell ref="B508:C508"/>
-    <mergeCell ref="D508:G508"/>
-    <mergeCell ref="B509:D509"/>
-    <mergeCell ref="E509:G509"/>
-    <mergeCell ref="B492:D492"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="B493:D493"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="B494:D494"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="B495:D495"/>
-    <mergeCell ref="E495:G495"/>
-    <mergeCell ref="B496:D496"/>
-    <mergeCell ref="E496:G496"/>
-    <mergeCell ref="B497:D497"/>
-    <mergeCell ref="E497:G497"/>
-    <mergeCell ref="B498:D498"/>
-    <mergeCell ref="E498:G498"/>
-    <mergeCell ref="B499:D499"/>
-    <mergeCell ref="E499:G499"/>
-    <mergeCell ref="B500:D500"/>
-    <mergeCell ref="E500:G500"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="E483:G483"/>
-    <mergeCell ref="B484:E484"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="B485:D485"/>
-    <mergeCell ref="E485:G485"/>
-    <mergeCell ref="B486:E486"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="B487:D487"/>
-    <mergeCell ref="E487:G487"/>
-    <mergeCell ref="B488:E488"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="B489:C489"/>
-    <mergeCell ref="D489:G489"/>
-    <mergeCell ref="B490:D490"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="B491:D491"/>
-    <mergeCell ref="E491:G491"/>
-    <mergeCell ref="B474:D474"/>
-    <mergeCell ref="E474:G474"/>
-    <mergeCell ref="B475:C475"/>
-    <mergeCell ref="D475:G475"/>
-    <mergeCell ref="B476:D476"/>
-    <mergeCell ref="E476:G476"/>
-    <mergeCell ref="B477:D477"/>
-    <mergeCell ref="E477:G477"/>
-    <mergeCell ref="B478:D478"/>
-    <mergeCell ref="E478:G478"/>
-    <mergeCell ref="B479:D479"/>
-    <mergeCell ref="E479:G479"/>
-    <mergeCell ref="B480:D480"/>
-    <mergeCell ref="E480:G480"/>
-    <mergeCell ref="B481:D481"/>
-    <mergeCell ref="E481:G481"/>
-    <mergeCell ref="B482:D482"/>
-    <mergeCell ref="E482:G482"/>
-    <mergeCell ref="B465:E465"/>
-    <mergeCell ref="F465:G465"/>
-    <mergeCell ref="C466:G466"/>
-    <mergeCell ref="B467:C467"/>
-    <mergeCell ref="D467:G467"/>
-    <mergeCell ref="B468:D468"/>
-    <mergeCell ref="E468:G468"/>
-    <mergeCell ref="B469:C469"/>
-    <mergeCell ref="D469:G469"/>
-    <mergeCell ref="B470:C470"/>
-    <mergeCell ref="D470:G470"/>
-    <mergeCell ref="B471:D471"/>
-    <mergeCell ref="E471:G471"/>
-    <mergeCell ref="B472:D472"/>
-    <mergeCell ref="E472:G472"/>
-    <mergeCell ref="B473:D473"/>
-    <mergeCell ref="E473:G473"/>
-    <mergeCell ref="B456:D456"/>
-    <mergeCell ref="E456:G456"/>
-    <mergeCell ref="B457:D457"/>
-    <mergeCell ref="E457:G457"/>
-    <mergeCell ref="B458:E458"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="B459:C459"/>
-    <mergeCell ref="D459:G459"/>
-    <mergeCell ref="B460:D460"/>
-    <mergeCell ref="E460:G460"/>
-    <mergeCell ref="B461:D461"/>
-    <mergeCell ref="E461:G461"/>
-    <mergeCell ref="B462:D462"/>
-    <mergeCell ref="E462:G462"/>
-    <mergeCell ref="B463:D463"/>
-    <mergeCell ref="E463:G463"/>
-    <mergeCell ref="B464:D464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="B447:D447"/>
-    <mergeCell ref="E447:G447"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="E448:G448"/>
-    <mergeCell ref="B449:D449"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="B450:D450"/>
-    <mergeCell ref="E450:G450"/>
-    <mergeCell ref="B451:D451"/>
-    <mergeCell ref="E451:G451"/>
-    <mergeCell ref="B452:D452"/>
-    <mergeCell ref="E452:G452"/>
-    <mergeCell ref="B453:D453"/>
-    <mergeCell ref="E453:G453"/>
-    <mergeCell ref="B454:D454"/>
-    <mergeCell ref="E454:G454"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="E455:G455"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="E438:G438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="E439:G439"/>
-    <mergeCell ref="B440:D440"/>
-    <mergeCell ref="E440:G440"/>
-    <mergeCell ref="B441:D441"/>
-    <mergeCell ref="E441:G441"/>
-    <mergeCell ref="B442:D442"/>
-    <mergeCell ref="E442:G442"/>
-    <mergeCell ref="B443:D443"/>
-    <mergeCell ref="E443:G443"/>
-    <mergeCell ref="B444:D444"/>
-    <mergeCell ref="E444:G444"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="E445:G445"/>
-    <mergeCell ref="B446:C446"/>
-    <mergeCell ref="D446:G446"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="E429:G429"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="E430:G430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="E432:G432"/>
-    <mergeCell ref="B433:C433"/>
-    <mergeCell ref="D433:G433"/>
-    <mergeCell ref="B434:D434"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="E435:G435"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="E437:G437"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="E420:G420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="E421:G421"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="E422:G422"/>
-    <mergeCell ref="B423:D423"/>
-    <mergeCell ref="E423:G423"/>
-    <mergeCell ref="B424:D424"/>
-    <mergeCell ref="E424:G424"/>
-    <mergeCell ref="B425:D425"/>
-    <mergeCell ref="E425:G425"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="E426:G426"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="E427:G427"/>
-    <mergeCell ref="B428:C428"/>
-    <mergeCell ref="D428:G428"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="E411:G411"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="E412:G412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="E413:G413"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="E414:G414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="E415:G415"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="E416:G416"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="E417:G417"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="E418:G418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="E419:G419"/>
-    <mergeCell ref="C402:G402"/>
-    <mergeCell ref="B403:C403"/>
-    <mergeCell ref="D403:G403"/>
-    <mergeCell ref="B404:D404"/>
-    <mergeCell ref="E404:G404"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="E405:G405"/>
-    <mergeCell ref="B406:C406"/>
-    <mergeCell ref="D406:G406"/>
-    <mergeCell ref="B407:D407"/>
-    <mergeCell ref="E407:G407"/>
-    <mergeCell ref="B408:D408"/>
-    <mergeCell ref="E408:G408"/>
-    <mergeCell ref="B409:D409"/>
-    <mergeCell ref="E409:G409"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="E410:G410"/>
-    <mergeCell ref="B393:D393"/>
-    <mergeCell ref="E393:G393"/>
-    <mergeCell ref="B394:D394"/>
-    <mergeCell ref="E394:G394"/>
-    <mergeCell ref="B395:C395"/>
-    <mergeCell ref="D395:G395"/>
-    <mergeCell ref="B396:D396"/>
-    <mergeCell ref="E396:G396"/>
-    <mergeCell ref="B397:D397"/>
-    <mergeCell ref="E397:G397"/>
-    <mergeCell ref="B398:C398"/>
-    <mergeCell ref="D398:G398"/>
-    <mergeCell ref="B399:D399"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="B400:D400"/>
-    <mergeCell ref="E400:G400"/>
-    <mergeCell ref="B401:D401"/>
-    <mergeCell ref="E401:G401"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="E384:G384"/>
-    <mergeCell ref="B385:E385"/>
-    <mergeCell ref="F385:G385"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="E386:G386"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="B388:D388"/>
-    <mergeCell ref="E388:G388"/>
-    <mergeCell ref="B389:E389"/>
-    <mergeCell ref="F389:G389"/>
-    <mergeCell ref="B390:C390"/>
-    <mergeCell ref="D390:G390"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="E391:G391"/>
-    <mergeCell ref="B392:D392"/>
-    <mergeCell ref="E392:G392"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="E375:G375"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="E376:G376"/>
-    <mergeCell ref="B377:C377"/>
-    <mergeCell ref="D377:G377"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="E378:G378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="E379:G379"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="B382:C382"/>
-    <mergeCell ref="D382:G382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="E383:G383"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="E366:G366"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="B368:C368"/>
-    <mergeCell ref="D368:G368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="B371:C371"/>
-    <mergeCell ref="D371:G371"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="E373:G373"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="E374:G374"/>
-    <mergeCell ref="B357:E357"/>
-    <mergeCell ref="F357:G357"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="E358:G358"/>
-    <mergeCell ref="B359:E359"/>
-    <mergeCell ref="F359:G359"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="F361:G361"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="E362:G362"/>
-    <mergeCell ref="B363:E363"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="B365:E365"/>
-    <mergeCell ref="F365:G365"/>
-    <mergeCell ref="B348:C348"/>
-    <mergeCell ref="D348:G348"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="E349:G349"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="E350:G350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="E351:G351"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="E352:G352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="E353:G353"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="E354:G354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="E355:G355"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="E356:G356"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="E339:G339"/>
-    <mergeCell ref="B340:D340"/>
-    <mergeCell ref="E340:G340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="D341:G341"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="E342:G342"/>
-    <mergeCell ref="B343:D343"/>
-    <mergeCell ref="E343:G343"/>
-    <mergeCell ref="B344:D344"/>
-    <mergeCell ref="E344:G344"/>
-    <mergeCell ref="B345:D345"/>
-    <mergeCell ref="E345:G345"/>
-    <mergeCell ref="B346:D346"/>
-    <mergeCell ref="E346:G346"/>
-    <mergeCell ref="B347:E347"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="E330:G330"/>
-    <mergeCell ref="B331:E331"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="D332:G332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="E333:G333"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="E335:G335"/>
-    <mergeCell ref="B336:D336"/>
-    <mergeCell ref="E336:G336"/>
-    <mergeCell ref="B337:D337"/>
-    <mergeCell ref="E337:G337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:G338"/>
-    <mergeCell ref="B321:D321"/>
-    <mergeCell ref="E321:G321"/>
-    <mergeCell ref="B322:C322"/>
-    <mergeCell ref="D322:G322"/>
-    <mergeCell ref="B323:D323"/>
-    <mergeCell ref="E323:G323"/>
-    <mergeCell ref="B324:D324"/>
-    <mergeCell ref="E324:G324"/>
-    <mergeCell ref="B325:D325"/>
-    <mergeCell ref="E325:G325"/>
-    <mergeCell ref="B326:D326"/>
-    <mergeCell ref="E326:G326"/>
-    <mergeCell ref="B327:D327"/>
-    <mergeCell ref="E327:G327"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="E328:G328"/>
-    <mergeCell ref="B329:E329"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="B312:D312"/>
-    <mergeCell ref="E312:G312"/>
-    <mergeCell ref="B313:E313"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="C314:G314"/>
-    <mergeCell ref="B315:C315"/>
-    <mergeCell ref="D315:G315"/>
-    <mergeCell ref="B316:D316"/>
-    <mergeCell ref="E316:G316"/>
-    <mergeCell ref="B317:D317"/>
-    <mergeCell ref="E317:G317"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="E318:G318"/>
-    <mergeCell ref="B319:C319"/>
-    <mergeCell ref="D319:G319"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="E320:G320"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="E303:G303"/>
-    <mergeCell ref="B304:C304"/>
-    <mergeCell ref="D304:G304"/>
-    <mergeCell ref="B305:D305"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="B306:D306"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="B307:D307"/>
-    <mergeCell ref="E307:G307"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="E308:G308"/>
-    <mergeCell ref="B309:D309"/>
-    <mergeCell ref="E309:G309"/>
-    <mergeCell ref="B310:D310"/>
-    <mergeCell ref="E310:G310"/>
-    <mergeCell ref="B311:D311"/>
-    <mergeCell ref="E311:G311"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="E294:G294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="B296:D296"/>
-    <mergeCell ref="E296:G296"/>
-    <mergeCell ref="B297:E297"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="B298:D298"/>
-    <mergeCell ref="E298:G298"/>
-    <mergeCell ref="B299:E299"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="D300:G300"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="E301:G301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:G302"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="B286:D286"/>
-    <mergeCell ref="E286:G286"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="B288:D288"/>
-    <mergeCell ref="E288:G288"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="B290:D290"/>
-    <mergeCell ref="E290:G290"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="B292:D292"/>
-    <mergeCell ref="E292:G292"/>
-    <mergeCell ref="B293:E293"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="B276:D276"/>
-    <mergeCell ref="E276:G276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="D277:G277"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="E278:G278"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="E279:G279"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="E280:G280"/>
-    <mergeCell ref="B281:D281"/>
-    <mergeCell ref="E281:G281"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="E282:G282"/>
-    <mergeCell ref="B283:D283"/>
-    <mergeCell ref="E283:G283"/>
-    <mergeCell ref="B284:D284"/>
-    <mergeCell ref="E284:G284"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:G267"/>
-    <mergeCell ref="B268:D268"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="B269:D269"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="D271:G271"/>
-    <mergeCell ref="B272:D272"/>
-    <mergeCell ref="E272:G272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="E274:G274"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="E275:G275"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="D258:G258"/>
-    <mergeCell ref="B259:D259"/>
-    <mergeCell ref="E259:G259"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="E260:G260"/>
-    <mergeCell ref="B261:D261"/>
-    <mergeCell ref="E261:G261"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="E262:G262"/>
-    <mergeCell ref="B263:D263"/>
-    <mergeCell ref="E263:G263"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="E264:G264"/>
-    <mergeCell ref="B265:E265"/>
-    <mergeCell ref="F265:G265"/>
-    <mergeCell ref="C266:G266"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:G249"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="E250:G250"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="E251:G251"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="E252:G252"/>
-    <mergeCell ref="B253:E253"/>
-    <mergeCell ref="F253:G253"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="E254:G254"/>
-    <mergeCell ref="B255:E255"/>
-    <mergeCell ref="F255:G255"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="E256:G256"/>
-    <mergeCell ref="B257:E257"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:G240"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="E242:G242"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="F243:G243"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="B245:E245"/>
-    <mergeCell ref="F245:G245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="D246:G246"/>
-    <mergeCell ref="B247:D247"/>
-    <mergeCell ref="E247:G247"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="E248:G248"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="E232:G232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="D233:G233"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="E234:G234"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="E235:G235"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="E236:G236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="E237:G237"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="E238:G238"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="E222:G222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:G223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="E225:G225"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="D227:G227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="E228:G228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="E229:G229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="D230:G230"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="E213:G213"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="E215:G215"/>
-    <mergeCell ref="B216:E216"/>
-    <mergeCell ref="F216:G216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="E217:G217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="E219:G219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:G221"/>
-    <mergeCell ref="B204:E204"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="E205:G205"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="E209:G209"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="E211:G211"/>
-    <mergeCell ref="B212:E212"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="E195:G195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="F196:G196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="E201:G201"/>
-    <mergeCell ref="B202:E202"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="E203:G203"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="E185:G185"/>
-    <mergeCell ref="B186:E186"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="C187:G187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="E189:G189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="B191:F191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="B193:F193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="E194:G194"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="E176:G176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="E177:G177"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="D179:G179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="E180:G180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="E181:G181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="E167:G167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="E169:G169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="E171:G171"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="E174:G174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="E175:G175"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="E161:G161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="E163:G163"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="E164:G164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="E165:G165"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="E166:G166"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="E150:G150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="E152:G152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="E153:G153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="E155:G155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="E157:G157"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="E140:G140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="E131:G131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="E133:G133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="E134:G134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="E135:G135"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="E138:G138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="B123:E123"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="E125:G125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="E130:G130"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="E117:G117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="E118:G118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="E108:G108"/>
-    <mergeCell ref="B109:E109"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
